--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="172"/>
-    <sheet name="E30" r:id="rId10" sheetId="173"/>
-    <sheet name="E32" r:id="rId11" sheetId="174"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="175"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="176"/>
+    <sheet name="E31" r:id="rId9" sheetId="177"/>
+    <sheet name="E30" r:id="rId10" sheetId="178"/>
+    <sheet name="E32" r:id="rId11" sheetId="179"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="180"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="181"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="117" x14ac:knownFonts="1">
+  <fonts count="127" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,8 +1023,68 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="113">
+  <fills count="121">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1604,8 +1664,48 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1814,6 +1914,13 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1860,7 +1967,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="825">
+  <cellXfs count="907">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4088,49 +4195,295 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="100" fontId="106" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="106" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="106" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="106" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="31" fillId="108" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="108" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="108" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="110" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="110" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="31" fillId="110" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="110" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="110" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="110" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="110" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="31" fillId="110" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="110" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="110" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="31" fillId="108" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="108" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="31" fillId="108" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="108" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="112" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="112" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="31" fillId="112" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="112" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="108" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="31" fillId="108" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="108" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -4241,97 +4594,97 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="117" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="118" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="119" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="120" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="121" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="122" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="123" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="124" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="125" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="126" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4684,7 +5037,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4698,30 +5051,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="743" t="s">
+      <c r="A1" s="825" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="743" t="s">
+      <c r="B1" s="825" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="743" t="s">
+      <c r="C1" s="825" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="743" t="s">
+      <c r="D1" s="825" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="744">
+      <c r="A2" t="s" s="826">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="745">
+      <c r="B2" t="s" s="827">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="744">
+      <c r="C2" t="s" s="826">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="744">
+      <c r="D2" t="s" s="826">
         <v>73</v>
       </c>
     </row>
@@ -4730,7 +5083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4744,86 +5097,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="746" t="s">
+      <c r="A1" s="828" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="746" t="s">
+      <c r="B1" s="828" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="746" t="s">
+      <c r="C1" s="828" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="746" t="s">
+      <c r="D1" s="828" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="747">
+      <c r="A2" t="s" s="829">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="748">
+      <c r="B2" t="s" s="830">
         <v>82</v>
       </c>
-      <c r="C2" t="s" s="747">
+      <c r="C2" t="s" s="829">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="747">
+      <c r="D2" t="s" s="829">
         <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="749">
+      <c r="A3" t="s" s="831">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="750">
+      <c r="B3" t="s" s="832">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="749">
+      <c r="C3" t="s" s="831">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="749">
+      <c r="D3" t="s" s="831">
         <v>73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="751">
+      <c r="A4" t="s" s="833">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="752">
+      <c r="B4" t="s" s="834">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="751">
+      <c r="C4" t="s" s="833">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="751">
+      <c r="D4" t="s" s="833">
         <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="753">
+      <c r="A5" t="s" s="835">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="754">
+      <c r="B5" t="s" s="836">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="753">
+      <c r="C5" t="s" s="835">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="753">
+      <c r="D5" t="s" s="835">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="755">
+      <c r="A6" t="s" s="837">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="756">
+      <c r="B6" t="s" s="838">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="755">
+      <c r="C6" t="s" s="837">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="755">
+      <c r="D6" t="s" s="837">
         <v>73</v>
       </c>
     </row>
@@ -4832,7 +5185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4846,16 +5199,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="757" t="s">
+      <c r="A1" s="839" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="757" t="s">
+      <c r="B1" s="839" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="757" t="s">
+      <c r="C1" s="839" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="757" t="s">
+      <c r="D1" s="839" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4864,7 +5217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet180.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -4893,364 +5246,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="758" t="s">
+      <c r="A1" s="840" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="759" t="s">
+      <c r="B1" s="841" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="760" t="s">
+      <c r="C1" s="842" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="761" t="s">
+      <c r="D1" s="843" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="762" t="s">
+      <c r="E1" s="844" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="763" t="s">
+      <c r="F1" s="845" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="764" t="s">
+      <c r="G1" s="846" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="765" t="s">
+      <c r="H1" s="847" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="766" t="s">
+      <c r="I1" s="848" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="767" t="s">
+      <c r="J1" s="849" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="768" t="s">
+      <c r="K1" s="850" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="769" t="s">
+      <c r="L1" s="851" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="770" t="s">
+      <c r="M1" s="852" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="771" t="s">
+      <c r="N1" s="853" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="772" t="s">
+      <c r="O1" s="854" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="773" t="s">
+      <c r="P1" s="855" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="774" t="s">
+      <c r="Q1" s="856" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="775" t="s">
+      <c r="R1" s="857" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="794">
+      <c r="A2" t="s" s="876">
         <v>79</v>
       </c>
-      <c r="B2" t="s" s="794">
+      <c r="B2" t="s" s="876">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="794">
+      <c r="C2" t="s" s="876">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="794">
+      <c r="D2" t="s" s="876">
         <v>74</v>
       </c>
-      <c r="E2" t="s" s="794">
+      <c r="E2" t="s" s="876">
         <v>30</v>
       </c>
-      <c r="F2" t="s" s="794">
+      <c r="F2" t="s" s="876">
         <v>31</v>
       </c>
-      <c r="G2" t="s" s="794">
+      <c r="G2" t="s" s="876">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="795">
+      <c r="H2" t="s" s="877">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="797">
+      <c r="I2" t="s" s="879">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="795">
+      <c r="J2" t="s" s="877">
         <v>17</v>
       </c>
-      <c r="K2" s="796"/>
-      <c r="L2" s="796"/>
-      <c r="M2" s="798" t="n">
+      <c r="K2" s="878"/>
+      <c r="L2" s="878"/>
+      <c r="M2" s="880" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N2" t="s" s="794">
+      <c r="N2" t="s" s="876">
         <v>61</v>
       </c>
-      <c r="O2" t="s" s="794">
+      <c r="O2" t="s" s="876">
         <v>62</v>
       </c>
-      <c r="P2" t="s" s="795">
+      <c r="P2" t="s" s="877">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="795">
+      <c r="Q2" t="s" s="877">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="795">
+      <c r="R2" t="s" s="877">
         <v>83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="799">
+      <c r="A3" t="s" s="881">
         <v>79</v>
       </c>
-      <c r="B3" t="s" s="799">
+      <c r="B3" t="s" s="881">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="799">
+      <c r="C3" t="s" s="881">
         <v>66</v>
       </c>
-      <c r="D3" t="s" s="799">
+      <c r="D3" t="s" s="881">
         <v>75</v>
       </c>
-      <c r="E3" t="s" s="799">
+      <c r="E3" t="s" s="881">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="799">
+      <c r="F3" t="s" s="881">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="799">
+      <c r="G3" t="s" s="881">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="800">
+      <c r="H3" t="s" s="882">
         <v>46</v>
       </c>
-      <c r="I3" t="s" s="802">
+      <c r="I3" t="s" s="884">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="800">
+      <c r="J3" t="s" s="882">
         <v>17</v>
       </c>
-      <c r="K3" s="801"/>
-      <c r="L3" s="801"/>
-      <c r="M3" s="803" t="n">
+      <c r="K3" s="883"/>
+      <c r="L3" s="883"/>
+      <c r="M3" s="885" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N3" t="s" s="799">
+      <c r="N3" t="s" s="881">
         <v>61</v>
       </c>
-      <c r="O3" t="s" s="799">
+      <c r="O3" t="s" s="881">
         <v>59</v>
       </c>
-      <c r="P3" t="s" s="800">
+      <c r="P3" t="s" s="882">
         <v>43</v>
       </c>
-      <c r="Q3" t="s" s="800">
+      <c r="Q3" t="s" s="882">
         <v>33</v>
       </c>
-      <c r="R3" t="s" s="800">
+      <c r="R3" t="s" s="882">
         <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="804">
+      <c r="A4" t="s" s="886">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="804">
+      <c r="B4" t="s" s="886">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="804">
+      <c r="C4" t="s" s="886">
         <v>65</v>
       </c>
-      <c r="D4" t="s" s="804">
+      <c r="D4" t="s" s="886">
         <v>76</v>
       </c>
-      <c r="E4" t="s" s="804">
+      <c r="E4" t="s" s="886">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="804">
+      <c r="F4" t="s" s="886">
         <v>38</v>
       </c>
-      <c r="G4" t="s" s="804">
+      <c r="G4" t="s" s="886">
         <v>39</v>
       </c>
-      <c r="H4" t="s" s="805">
+      <c r="H4" t="s" s="887">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="807">
+      <c r="I4" t="s" s="889">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="805">
+      <c r="J4" t="s" s="887">
         <v>17</v>
       </c>
-      <c r="K4" s="806"/>
-      <c r="L4" s="806"/>
-      <c r="M4" s="808" t="n">
+      <c r="K4" s="888"/>
+      <c r="L4" s="888"/>
+      <c r="M4" s="890" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N4" t="s" s="804">
+      <c r="N4" t="s" s="886">
         <v>61</v>
       </c>
-      <c r="O4" t="s" s="804">
+      <c r="O4" t="s" s="886">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="805">
+      <c r="P4" t="s" s="887">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="805">
+      <c r="Q4" t="s" s="887">
         <v>33</v>
       </c>
-      <c r="R4" t="s" s="805">
+      <c r="R4" t="s" s="887">
         <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="809">
+      <c r="A5" t="s" s="891">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="809">
+      <c r="B5" t="s" s="891">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="809">
+      <c r="C5" t="s" s="891">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="809">
+      <c r="D5" t="s" s="891">
         <v>77</v>
       </c>
-      <c r="E5" t="s" s="809">
+      <c r="E5" t="s" s="891">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="809">
+      <c r="F5" t="s" s="891">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="809">
+      <c r="G5" t="s" s="891">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="810">
+      <c r="H5" t="s" s="892">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="812">
+      <c r="I5" t="s" s="894">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="810">
+      <c r="J5" t="s" s="892">
         <v>22</v>
       </c>
-      <c r="K5" s="811"/>
-      <c r="L5" s="811"/>
-      <c r="M5" s="810"/>
-      <c r="N5" t="s" s="809">
+      <c r="K5" s="893"/>
+      <c r="L5" s="893"/>
+      <c r="M5" s="892"/>
+      <c r="N5" t="s" s="891">
         <v>69</v>
       </c>
-      <c r="O5" t="s" s="809">
+      <c r="O5" t="s" s="891">
         <v>70</v>
       </c>
-      <c r="P5" t="s" s="810">
+      <c r="P5" t="s" s="892">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="810">
+      <c r="Q5" t="s" s="892">
         <v>29</v>
       </c>
-      <c r="R5" t="s" s="810">
+      <c r="R5" t="s" s="892">
         <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="813">
+      <c r="A6" t="s" s="895">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="813">
+      <c r="B6" t="s" s="895">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="813">
+      <c r="C6" t="s" s="895">
         <v>64</v>
       </c>
-      <c r="D6" t="s" s="813">
+      <c r="D6" t="s" s="895">
         <v>77</v>
       </c>
-      <c r="E6" t="s" s="813">
+      <c r="E6" t="s" s="895">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="813">
+      <c r="F6" t="s" s="895">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="813">
+      <c r="G6" t="s" s="895">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="814">
+      <c r="H6" t="s" s="896">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="816">
+      <c r="I6" t="s" s="898">
         <v>25</v>
       </c>
-      <c r="J6" t="s" s="814">
+      <c r="J6" t="s" s="896">
         <v>22</v>
       </c>
-      <c r="K6" s="815"/>
-      <c r="L6" s="815"/>
-      <c r="M6" s="814"/>
-      <c r="N6" t="s" s="813">
+      <c r="K6" s="897"/>
+      <c r="L6" s="897"/>
+      <c r="M6" s="896"/>
+      <c r="N6" t="s" s="895">
         <v>69</v>
       </c>
-      <c r="O6" t="s" s="813">
+      <c r="O6" t="s" s="895">
         <v>71</v>
       </c>
-      <c r="P6" t="s" s="814">
+      <c r="P6" t="s" s="896">
         <v>43</v>
       </c>
-      <c r="Q6" t="s" s="814">
+      <c r="Q6" t="s" s="896">
         <v>29</v>
       </c>
-      <c r="R6" t="s" s="814">
+      <c r="R6" t="s" s="896">
         <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="817">
+      <c r="A7" t="s" s="899">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="817">
+      <c r="B7" t="s" s="899">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="817">
+      <c r="C7" t="s" s="899">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="817">
+      <c r="D7" t="s" s="899">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="817">
+      <c r="E7" t="s" s="899">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="817">
+      <c r="F7" t="s" s="899">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="817">
+      <c r="G7" t="s" s="899">
         <v>28</v>
       </c>
-      <c r="H7" t="s" s="818">
+      <c r="H7" t="s" s="900">
         <v>82</v>
       </c>
-      <c r="I7" t="s" s="820">
+      <c r="I7" t="s" s="902">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="818">
+      <c r="J7" t="s" s="900">
         <v>17</v>
       </c>
-      <c r="K7" s="819"/>
-      <c r="L7" s="819"/>
-      <c r="M7" s="818"/>
-      <c r="N7" t="s" s="817">
+      <c r="K7" s="901"/>
+      <c r="L7" s="901"/>
+      <c r="M7" s="900"/>
+      <c r="N7" t="s" s="899">
         <v>80</v>
       </c>
-      <c r="O7" t="s" s="817">
+      <c r="O7" t="s" s="899">
         <v>68</v>
       </c>
-      <c r="P7" t="s" s="818">
+      <c r="P7" t="s" s="900">
         <v>43</v>
       </c>
-      <c r="Q7" t="s" s="818">
+      <c r="Q7" t="s" s="900">
         <v>29</v>
       </c>
-      <c r="R7" t="s" s="818">
+      <c r="R7" t="s" s="900">
         <v>83</v>
       </c>
     </row>
@@ -5270,7 +5623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -5299,110 +5652,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="776" t="s">
+      <c r="A1" s="858" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="777" t="s">
+      <c r="B1" s="859" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="778" t="s">
+      <c r="C1" s="860" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="779" t="s">
+      <c r="D1" s="861" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="780" t="s">
+      <c r="E1" s="862" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="781" t="s">
+      <c r="F1" s="863" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="782" t="s">
+      <c r="G1" s="864" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="783" t="s">
+      <c r="H1" s="865" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="784" t="s">
+      <c r="I1" s="866" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="785" t="s">
+      <c r="J1" s="867" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="786" t="s">
+      <c r="K1" s="868" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="787" t="s">
+      <c r="L1" s="869" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="788" t="s">
+      <c r="M1" s="870" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="789" t="s">
+      <c r="N1" s="871" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="790" t="s">
+      <c r="O1" s="872" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="791" t="s">
+      <c r="P1" s="873" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="792" t="s">
+      <c r="Q1" s="874" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="793" t="s">
+      <c r="R1" s="875" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="821">
+      <c r="A2" t="s" s="903">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="821">
+      <c r="B2" t="s" s="903">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="821">
+      <c r="C2" t="s" s="903">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="821">
+      <c r="D2" t="s" s="903">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="821">
+      <c r="E2" t="s" s="903">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="821">
+      <c r="F2" t="s" s="903">
         <v>56</v>
       </c>
-      <c r="G2" t="s" s="821">
+      <c r="G2" t="s" s="903">
         <v>36</v>
       </c>
-      <c r="H2" t="s" s="822">
+      <c r="H2" t="s" s="904">
         <v>55</v>
       </c>
-      <c r="I2" t="s" s="824">
+      <c r="I2" t="s" s="906">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="822">
+      <c r="J2" t="s" s="904">
         <v>22</v>
       </c>
-      <c r="K2" t="n" s="823">
+      <c r="K2" t="n" s="905">
         <v>43166.0</v>
       </c>
-      <c r="L2" s="823"/>
-      <c r="M2" s="822"/>
-      <c r="N2" t="s" s="821">
+      <c r="L2" s="905"/>
+      <c r="M2" s="904"/>
+      <c r="N2" t="s" s="903">
         <v>60</v>
       </c>
-      <c r="O2" t="s" s="821">
+      <c r="O2" t="s" s="903">
         <v>67</v>
       </c>
-      <c r="P2" t="s" s="822">
+      <c r="P2" t="s" s="904">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="822">
+      <c r="Q2" t="s" s="904">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="822">
+      <c r="R2" t="s" s="904">
         <v>43</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="177"/>
-    <sheet name="E30" r:id="rId10" sheetId="178"/>
-    <sheet name="E32" r:id="rId11" sheetId="179"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="180"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="181"/>
+    <sheet name="E31" r:id="rId9" sheetId="182"/>
+    <sheet name="E30" r:id="rId10" sheetId="183"/>
+    <sheet name="E32" r:id="rId11" sheetId="184"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="185"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="186"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="127" x14ac:knownFonts="1">
+  <fonts count="137" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,8 +1083,68 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="121">
+  <fills count="129">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1704,8 +1764,48 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1921,6 +2021,13 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1967,7 +2074,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="907">
+  <cellXfs count="989">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4441,49 +4548,295 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="31" fillId="108" fontId="116" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="114" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="114" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="114" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="33" fillId="116" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="116" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="116" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="118" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="118" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="33" fillId="118" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="118" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="118" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="118" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="118" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="33" fillId="118" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="118" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="118" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="33" fillId="116" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="116" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="33" fillId="116" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="116" fontId="124" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="120" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="120" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="33" fillId="120" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="120" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="116" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="33" fillId="116" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="116" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -4594,97 +4947,97 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="127" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="128" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="129" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="130" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="131" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="118" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="132" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="133" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="134" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="120" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="135" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="116" borderId="33" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="136" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5037,7 +5390,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet177.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet182.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5051,30 +5404,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="825" t="s">
+      <c r="A1" s="907" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="825" t="s">
+      <c r="B1" s="907" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="825" t="s">
+      <c r="C1" s="907" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="825" t="s">
+      <c r="D1" s="907" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="826">
+      <c r="A2" t="s" s="908">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="827">
+      <c r="B2" t="s" s="909">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="826">
+      <c r="C2" t="s" s="908">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="826">
+      <c r="D2" t="s" s="908">
         <v>73</v>
       </c>
     </row>
@@ -5083,7 +5436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet178.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet183.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5097,86 +5450,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="828" t="s">
+      <c r="A1" s="910" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="828" t="s">
+      <c r="B1" s="910" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="828" t="s">
+      <c r="C1" s="910" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="828" t="s">
+      <c r="D1" s="910" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="829">
+      <c r="A2" t="s" s="911">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="830">
+      <c r="B2" t="s" s="912">
         <v>82</v>
       </c>
-      <c r="C2" t="s" s="829">
+      <c r="C2" t="s" s="911">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="829">
+      <c r="D2" t="s" s="911">
         <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="831">
+      <c r="A3" t="s" s="913">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="832">
+      <c r="B3" t="s" s="914">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="831">
+      <c r="C3" t="s" s="913">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="831">
+      <c r="D3" t="s" s="913">
         <v>73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="833">
+      <c r="A4" t="s" s="915">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="834">
+      <c r="B4" t="s" s="916">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="833">
+      <c r="C4" t="s" s="915">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="833">
+      <c r="D4" t="s" s="915">
         <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="835">
+      <c r="A5" t="s" s="917">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="836">
+      <c r="B5" t="s" s="918">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="835">
+      <c r="C5" t="s" s="917">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="835">
+      <c r="D5" t="s" s="917">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="837">
+      <c r="A6" t="s" s="919">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="838">
+      <c r="B6" t="s" s="920">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="837">
+      <c r="C6" t="s" s="919">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="837">
+      <c r="D6" t="s" s="919">
         <v>73</v>
       </c>
     </row>
@@ -5185,7 +5538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet179.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet184.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5199,16 +5552,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="839" t="s">
+      <c r="A1" s="921" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="839" t="s">
+      <c r="B1" s="921" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="839" t="s">
+      <c r="C1" s="921" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="839" t="s">
+      <c r="D1" s="921" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5217,7 +5570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet180.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -5246,364 +5599,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="840" t="s">
+      <c r="A1" s="922" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="841" t="s">
+      <c r="B1" s="923" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="842" t="s">
+      <c r="C1" s="924" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="843" t="s">
+      <c r="D1" s="925" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="844" t="s">
+      <c r="E1" s="926" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="845" t="s">
+      <c r="F1" s="927" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="846" t="s">
+      <c r="G1" s="928" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="847" t="s">
+      <c r="H1" s="929" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="848" t="s">
+      <c r="I1" s="930" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="849" t="s">
+      <c r="J1" s="931" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="850" t="s">
+      <c r="K1" s="932" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="851" t="s">
+      <c r="L1" s="933" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="852" t="s">
+      <c r="M1" s="934" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="853" t="s">
+      <c r="N1" s="935" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="854" t="s">
+      <c r="O1" s="936" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="855" t="s">
+      <c r="P1" s="937" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="856" t="s">
+      <c r="Q1" s="938" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="857" t="s">
+      <c r="R1" s="939" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="876">
+      <c r="A2" t="s" s="958">
         <v>79</v>
       </c>
-      <c r="B2" t="s" s="876">
+      <c r="B2" t="s" s="958">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="876">
+      <c r="C2" t="s" s="958">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="876">
+      <c r="D2" t="s" s="958">
         <v>74</v>
       </c>
-      <c r="E2" t="s" s="876">
+      <c r="E2" t="s" s="958">
         <v>30</v>
       </c>
-      <c r="F2" t="s" s="876">
+      <c r="F2" t="s" s="958">
         <v>31</v>
       </c>
-      <c r="G2" t="s" s="876">
+      <c r="G2" t="s" s="958">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="877">
+      <c r="H2" t="s" s="959">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="879">
+      <c r="I2" t="s" s="961">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="877">
+      <c r="J2" t="s" s="959">
         <v>17</v>
       </c>
-      <c r="K2" s="878"/>
-      <c r="L2" s="878"/>
-      <c r="M2" s="880" t="n">
+      <c r="K2" s="960"/>
+      <c r="L2" s="960"/>
+      <c r="M2" s="962" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N2" t="s" s="876">
+      <c r="N2" t="s" s="958">
         <v>61</v>
       </c>
-      <c r="O2" t="s" s="876">
+      <c r="O2" t="s" s="958">
         <v>62</v>
       </c>
-      <c r="P2" t="s" s="877">
+      <c r="P2" t="s" s="959">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="877">
+      <c r="Q2" t="s" s="959">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="877">
+      <c r="R2" t="s" s="959">
         <v>83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="881">
+      <c r="A3" t="s" s="963">
         <v>79</v>
       </c>
-      <c r="B3" t="s" s="881">
+      <c r="B3" t="s" s="963">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="881">
+      <c r="C3" t="s" s="963">
         <v>66</v>
       </c>
-      <c r="D3" t="s" s="881">
+      <c r="D3" t="s" s="963">
         <v>75</v>
       </c>
-      <c r="E3" t="s" s="881">
+      <c r="E3" t="s" s="963">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="881">
+      <c r="F3" t="s" s="963">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="881">
+      <c r="G3" t="s" s="963">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="882">
+      <c r="H3" t="s" s="964">
         <v>46</v>
       </c>
-      <c r="I3" t="s" s="884">
+      <c r="I3" t="s" s="966">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="882">
+      <c r="J3" t="s" s="964">
         <v>17</v>
       </c>
-      <c r="K3" s="883"/>
-      <c r="L3" s="883"/>
-      <c r="M3" s="885" t="n">
+      <c r="K3" s="965"/>
+      <c r="L3" s="965"/>
+      <c r="M3" s="967" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N3" t="s" s="881">
+      <c r="N3" t="s" s="963">
         <v>61</v>
       </c>
-      <c r="O3" t="s" s="881">
+      <c r="O3" t="s" s="963">
         <v>59</v>
       </c>
-      <c r="P3" t="s" s="882">
+      <c r="P3" t="s" s="964">
         <v>43</v>
       </c>
-      <c r="Q3" t="s" s="882">
+      <c r="Q3" t="s" s="964">
         <v>33</v>
       </c>
-      <c r="R3" t="s" s="882">
+      <c r="R3" t="s" s="964">
         <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="886">
+      <c r="A4" t="s" s="968">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="886">
+      <c r="B4" t="s" s="968">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="886">
+      <c r="C4" t="s" s="968">
         <v>65</v>
       </c>
-      <c r="D4" t="s" s="886">
+      <c r="D4" t="s" s="968">
         <v>76</v>
       </c>
-      <c r="E4" t="s" s="886">
+      <c r="E4" t="s" s="968">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="886">
+      <c r="F4" t="s" s="968">
         <v>38</v>
       </c>
-      <c r="G4" t="s" s="886">
+      <c r="G4" t="s" s="968">
         <v>39</v>
       </c>
-      <c r="H4" t="s" s="887">
+      <c r="H4" t="s" s="969">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="889">
+      <c r="I4" t="s" s="971">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="887">
+      <c r="J4" t="s" s="969">
         <v>17</v>
       </c>
-      <c r="K4" s="888"/>
-      <c r="L4" s="888"/>
-      <c r="M4" s="890" t="n">
+      <c r="K4" s="970"/>
+      <c r="L4" s="970"/>
+      <c r="M4" s="972" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N4" t="s" s="886">
+      <c r="N4" t="s" s="968">
         <v>61</v>
       </c>
-      <c r="O4" t="s" s="886">
+      <c r="O4" t="s" s="968">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="887">
+      <c r="P4" t="s" s="969">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="887">
+      <c r="Q4" t="s" s="969">
         <v>33</v>
       </c>
-      <c r="R4" t="s" s="887">
+      <c r="R4" t="s" s="969">
         <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="891">
+      <c r="A5" t="s" s="973">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="891">
+      <c r="B5" t="s" s="973">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="891">
+      <c r="C5" t="s" s="973">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="891">
+      <c r="D5" t="s" s="973">
         <v>77</v>
       </c>
-      <c r="E5" t="s" s="891">
+      <c r="E5" t="s" s="973">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="891">
+      <c r="F5" t="s" s="973">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="891">
+      <c r="G5" t="s" s="973">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="892">
+      <c r="H5" t="s" s="974">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="894">
+      <c r="I5" t="s" s="976">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="892">
+      <c r="J5" t="s" s="974">
         <v>22</v>
       </c>
-      <c r="K5" s="893"/>
-      <c r="L5" s="893"/>
-      <c r="M5" s="892"/>
-      <c r="N5" t="s" s="891">
+      <c r="K5" s="975"/>
+      <c r="L5" s="975"/>
+      <c r="M5" s="974"/>
+      <c r="N5" t="s" s="973">
         <v>69</v>
       </c>
-      <c r="O5" t="s" s="891">
+      <c r="O5" t="s" s="973">
         <v>70</v>
       </c>
-      <c r="P5" t="s" s="892">
+      <c r="P5" t="s" s="974">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="892">
+      <c r="Q5" t="s" s="974">
         <v>29</v>
       </c>
-      <c r="R5" t="s" s="892">
+      <c r="R5" t="s" s="974">
         <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="895">
+      <c r="A6" t="s" s="977">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="895">
+      <c r="B6" t="s" s="977">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="895">
+      <c r="C6" t="s" s="977">
         <v>64</v>
       </c>
-      <c r="D6" t="s" s="895">
+      <c r="D6" t="s" s="977">
         <v>77</v>
       </c>
-      <c r="E6" t="s" s="895">
+      <c r="E6" t="s" s="977">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="895">
+      <c r="F6" t="s" s="977">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="895">
+      <c r="G6" t="s" s="977">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="896">
+      <c r="H6" t="s" s="978">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="898">
+      <c r="I6" t="s" s="980">
         <v>25</v>
       </c>
-      <c r="J6" t="s" s="896">
+      <c r="J6" t="s" s="978">
         <v>22</v>
       </c>
-      <c r="K6" s="897"/>
-      <c r="L6" s="897"/>
-      <c r="M6" s="896"/>
-      <c r="N6" t="s" s="895">
+      <c r="K6" s="979"/>
+      <c r="L6" s="979"/>
+      <c r="M6" s="978"/>
+      <c r="N6" t="s" s="977">
         <v>69</v>
       </c>
-      <c r="O6" t="s" s="895">
+      <c r="O6" t="s" s="977">
         <v>71</v>
       </c>
-      <c r="P6" t="s" s="896">
+      <c r="P6" t="s" s="978">
         <v>43</v>
       </c>
-      <c r="Q6" t="s" s="896">
+      <c r="Q6" t="s" s="978">
         <v>29</v>
       </c>
-      <c r="R6" t="s" s="896">
+      <c r="R6" t="s" s="978">
         <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="899">
+      <c r="A7" t="s" s="981">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="899">
+      <c r="B7" t="s" s="981">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="899">
+      <c r="C7" t="s" s="981">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="899">
+      <c r="D7" t="s" s="981">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="899">
+      <c r="E7" t="s" s="981">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="899">
+      <c r="F7" t="s" s="981">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="899">
+      <c r="G7" t="s" s="981">
         <v>28</v>
       </c>
-      <c r="H7" t="s" s="900">
+      <c r="H7" t="s" s="982">
         <v>82</v>
       </c>
-      <c r="I7" t="s" s="902">
+      <c r="I7" t="s" s="984">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="900">
+      <c r="J7" t="s" s="982">
         <v>17</v>
       </c>
-      <c r="K7" s="901"/>
-      <c r="L7" s="901"/>
-      <c r="M7" s="900"/>
-      <c r="N7" t="s" s="899">
+      <c r="K7" s="983"/>
+      <c r="L7" s="983"/>
+      <c r="M7" s="982"/>
+      <c r="N7" t="s" s="981">
         <v>80</v>
       </c>
-      <c r="O7" t="s" s="899">
+      <c r="O7" t="s" s="981">
         <v>68</v>
       </c>
-      <c r="P7" t="s" s="900">
+      <c r="P7" t="s" s="982">
         <v>43</v>
       </c>
-      <c r="Q7" t="s" s="900">
+      <c r="Q7" t="s" s="982">
         <v>29</v>
       </c>
-      <c r="R7" t="s" s="900">
+      <c r="R7" t="s" s="982">
         <v>83</v>
       </c>
     </row>
@@ -5623,7 +5976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet181.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -5652,110 +6005,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="858" t="s">
+      <c r="A1" s="940" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="859" t="s">
+      <c r="B1" s="941" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="860" t="s">
+      <c r="C1" s="942" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="861" t="s">
+      <c r="D1" s="943" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="862" t="s">
+      <c r="E1" s="944" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="863" t="s">
+      <c r="F1" s="945" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="864" t="s">
+      <c r="G1" s="946" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="865" t="s">
+      <c r="H1" s="947" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="866" t="s">
+      <c r="I1" s="948" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="867" t="s">
+      <c r="J1" s="949" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="868" t="s">
+      <c r="K1" s="950" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="869" t="s">
+      <c r="L1" s="951" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="870" t="s">
+      <c r="M1" s="952" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="871" t="s">
+      <c r="N1" s="953" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="872" t="s">
+      <c r="O1" s="954" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="873" t="s">
+      <c r="P1" s="955" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="874" t="s">
+      <c r="Q1" s="956" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="875" t="s">
+      <c r="R1" s="957" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="903">
+      <c r="A2" t="s" s="985">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="903">
+      <c r="B2" t="s" s="985">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="903">
+      <c r="C2" t="s" s="985">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="903">
+      <c r="D2" t="s" s="985">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="903">
+      <c r="E2" t="s" s="985">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="903">
+      <c r="F2" t="s" s="985">
         <v>56</v>
       </c>
-      <c r="G2" t="s" s="903">
+      <c r="G2" t="s" s="985">
         <v>36</v>
       </c>
-      <c r="H2" t="s" s="904">
+      <c r="H2" t="s" s="986">
         <v>55</v>
       </c>
-      <c r="I2" t="s" s="906">
+      <c r="I2" t="s" s="988">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="904">
+      <c r="J2" t="s" s="986">
         <v>22</v>
       </c>
-      <c r="K2" t="n" s="905">
+      <c r="K2" t="n" s="987">
         <v>43166.0</v>
       </c>
-      <c r="L2" s="905"/>
-      <c r="M2" s="904"/>
-      <c r="N2" t="s" s="903">
+      <c r="L2" s="987"/>
+      <c r="M2" s="986"/>
+      <c r="N2" t="s" s="985">
         <v>60</v>
       </c>
-      <c r="O2" t="s" s="903">
+      <c r="O2" t="s" s="985">
         <v>67</v>
       </c>
-      <c r="P2" t="s" s="904">
+      <c r="P2" t="s" s="986">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="904">
+      <c r="Q2" t="s" s="986">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="904">
+      <c r="R2" t="s" s="986">
         <v>43</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
+    <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="182"/>
-    <sheet name="E30" r:id="rId10" sheetId="183"/>
-    <sheet name="E32" r:id="rId11" sheetId="184"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="185"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="186"/>
+    <sheet name="E31" r:id="rId9" sheetId="185"/>
+    <sheet name="E30" r:id="rId10" sheetId="186"/>
+    <sheet name="E32" r:id="rId11" sheetId="187"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="188"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="189"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -1144,7 +1144,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="129">
+  <fills count="133">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +1786,26 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
@@ -1805,7 +1825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2028,6 +2048,13 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2074,7 +2101,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="989">
+  <cellXfs count="1004">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4794,49 +4821,94 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="116" fontId="126" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="122" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="122" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="124" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="122" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -4947,97 +5019,97 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="127" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="128" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="129" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="130" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="131" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="126" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="132" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="133" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="134" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="128" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="135" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="124" borderId="35" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="136" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5390,7 +5462,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet182.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5404,30 +5476,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="907" t="s">
+      <c r="A1" s="922" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="907" t="s">
+      <c r="B1" s="922" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="907" t="s">
+      <c r="C1" s="922" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="907" t="s">
+      <c r="D1" s="922" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="908">
+      <c r="A2" t="s" s="923">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="909">
+      <c r="B2" t="s" s="924">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="908">
+      <c r="C2" t="s" s="923">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="908">
+      <c r="D2" t="s" s="923">
         <v>73</v>
       </c>
     </row>
@@ -5436,7 +5508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet183.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5450,86 +5522,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="910" t="s">
+      <c r="A1" s="925" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="910" t="s">
+      <c r="B1" s="925" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="910" t="s">
+      <c r="C1" s="925" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="910" t="s">
+      <c r="D1" s="925" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="911">
+      <c r="A2" t="s" s="926">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="912">
+      <c r="B2" t="s" s="927">
         <v>82</v>
       </c>
-      <c r="C2" t="s" s="911">
+      <c r="C2" t="s" s="926">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="911">
+      <c r="D2" t="s" s="926">
         <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="913">
+      <c r="A3" t="s" s="928">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="914">
+      <c r="B3" t="s" s="929">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="913">
+      <c r="C3" t="s" s="928">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="913">
+      <c r="D3" t="s" s="928">
         <v>73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="915">
+      <c r="A4" t="s" s="930">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="916">
+      <c r="B4" t="s" s="931">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="915">
+      <c r="C4" t="s" s="930">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="915">
+      <c r="D4" t="s" s="930">
         <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="917">
+      <c r="A5" t="s" s="932">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="918">
+      <c r="B5" t="s" s="933">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="917">
+      <c r="C5" t="s" s="932">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="917">
+      <c r="D5" t="s" s="932">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="919">
+      <c r="A6" t="s" s="934">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="920">
+      <c r="B6" t="s" s="935">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="919">
+      <c r="C6" t="s" s="934">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="919">
+      <c r="D6" t="s" s="934">
         <v>73</v>
       </c>
     </row>
@@ -5538,7 +5610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet184.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet187.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5552,16 +5624,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="921" t="s">
+      <c r="A1" s="936" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="921" t="s">
+      <c r="B1" s="936" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="921" t="s">
+      <c r="C1" s="936" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="921" t="s">
+      <c r="D1" s="936" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5570,7 +5642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -5599,364 +5671,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="922" t="s">
+      <c r="A1" s="937" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="923" t="s">
+      <c r="B1" s="938" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="924" t="s">
+      <c r="C1" s="939" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="925" t="s">
+      <c r="D1" s="940" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="926" t="s">
+      <c r="E1" s="941" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="927" t="s">
+      <c r="F1" s="942" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="928" t="s">
+      <c r="G1" s="943" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="929" t="s">
+      <c r="H1" s="944" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="930" t="s">
+      <c r="I1" s="945" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="931" t="s">
+      <c r="J1" s="946" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="932" t="s">
+      <c r="K1" s="947" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="933" t="s">
+      <c r="L1" s="948" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="934" t="s">
+      <c r="M1" s="949" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="935" t="s">
+      <c r="N1" s="950" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="936" t="s">
+      <c r="O1" s="951" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="937" t="s">
+      <c r="P1" s="952" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="938" t="s">
+      <c r="Q1" s="953" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="939" t="s">
+      <c r="R1" s="954" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="958">
+      <c r="A2" t="s" s="973">
         <v>79</v>
       </c>
-      <c r="B2" t="s" s="958">
+      <c r="B2" t="s" s="973">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="958">
+      <c r="C2" t="s" s="973">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="958">
+      <c r="D2" t="s" s="973">
         <v>74</v>
       </c>
-      <c r="E2" t="s" s="958">
+      <c r="E2" t="s" s="973">
         <v>30</v>
       </c>
-      <c r="F2" t="s" s="958">
+      <c r="F2" t="s" s="973">
         <v>31</v>
       </c>
-      <c r="G2" t="s" s="958">
+      <c r="G2" t="s" s="973">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="959">
+      <c r="H2" t="s" s="974">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="961">
+      <c r="I2" t="s" s="976">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="959">
+      <c r="J2" t="s" s="974">
         <v>17</v>
       </c>
-      <c r="K2" s="960"/>
-      <c r="L2" s="960"/>
-      <c r="M2" s="962" t="n">
+      <c r="K2" s="975"/>
+      <c r="L2" s="975"/>
+      <c r="M2" s="977" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N2" t="s" s="958">
+      <c r="N2" t="s" s="973">
         <v>61</v>
       </c>
-      <c r="O2" t="s" s="958">
+      <c r="O2" t="s" s="973">
         <v>62</v>
       </c>
-      <c r="P2" t="s" s="959">
+      <c r="P2" t="s" s="974">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="959">
-        <v>29</v>
-      </c>
-      <c r="R2" t="s" s="959">
+      <c r="Q2" t="s" s="974">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s" s="974">
         <v>83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="963">
+      <c r="A3" t="s" s="978">
         <v>79</v>
       </c>
-      <c r="B3" t="s" s="963">
+      <c r="B3" t="s" s="978">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="963">
+      <c r="C3" t="s" s="978">
         <v>66</v>
       </c>
-      <c r="D3" t="s" s="963">
+      <c r="D3" t="s" s="978">
         <v>75</v>
       </c>
-      <c r="E3" t="s" s="963">
+      <c r="E3" t="s" s="978">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="963">
+      <c r="F3" t="s" s="978">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="963">
+      <c r="G3" t="s" s="978">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="964">
+      <c r="H3" t="s" s="979">
         <v>46</v>
       </c>
-      <c r="I3" t="s" s="966">
+      <c r="I3" t="s" s="981">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="964">
+      <c r="J3" t="s" s="979">
         <v>17</v>
       </c>
-      <c r="K3" s="965"/>
-      <c r="L3" s="965"/>
-      <c r="M3" s="967" t="n">
+      <c r="K3" s="980"/>
+      <c r="L3" s="980"/>
+      <c r="M3" s="982" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N3" t="s" s="963">
+      <c r="N3" t="s" s="978">
         <v>61</v>
       </c>
-      <c r="O3" t="s" s="963">
+      <c r="O3" t="s" s="978">
         <v>59</v>
       </c>
-      <c r="P3" t="s" s="964">
+      <c r="P3" t="s" s="979">
         <v>43</v>
       </c>
-      <c r="Q3" t="s" s="964">
+      <c r="Q3" t="s" s="979">
         <v>33</v>
       </c>
-      <c r="R3" t="s" s="964">
+      <c r="R3" t="s" s="979">
         <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="968">
+      <c r="A4" t="s" s="983">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="968">
+      <c r="B4" t="s" s="983">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="968">
+      <c r="C4" t="s" s="983">
         <v>65</v>
       </c>
-      <c r="D4" t="s" s="968">
+      <c r="D4" t="s" s="983">
         <v>76</v>
       </c>
-      <c r="E4" t="s" s="968">
+      <c r="E4" t="s" s="983">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="968">
+      <c r="F4" t="s" s="983">
         <v>38</v>
       </c>
-      <c r="G4" t="s" s="968">
+      <c r="G4" t="s" s="983">
         <v>39</v>
       </c>
-      <c r="H4" t="s" s="969">
+      <c r="H4" t="s" s="984">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="971">
+      <c r="I4" t="s" s="986">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="969">
+      <c r="J4" t="s" s="984">
         <v>17</v>
       </c>
-      <c r="K4" s="970"/>
-      <c r="L4" s="970"/>
-      <c r="M4" s="972" t="n">
+      <c r="K4" s="985"/>
+      <c r="L4" s="985"/>
+      <c r="M4" s="987" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N4" t="s" s="968">
+      <c r="N4" t="s" s="983">
         <v>61</v>
       </c>
-      <c r="O4" t="s" s="968">
+      <c r="O4" t="s" s="983">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="969">
+      <c r="P4" t="s" s="984">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="969">
+      <c r="Q4" t="s" s="984">
         <v>33</v>
       </c>
-      <c r="R4" t="s" s="969">
+      <c r="R4" t="s" s="984">
         <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="973">
+      <c r="A5" t="s" s="988">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="973">
+      <c r="B5" t="s" s="988">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="973">
+      <c r="C5" t="s" s="988">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="973">
+      <c r="D5" t="s" s="988">
         <v>77</v>
       </c>
-      <c r="E5" t="s" s="973">
+      <c r="E5" t="s" s="988">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="973">
+      <c r="F5" t="s" s="988">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="973">
+      <c r="G5" t="s" s="988">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="974">
+      <c r="H5" t="s" s="989">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="976">
+      <c r="I5" t="s" s="991">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="974">
+      <c r="J5" t="s" s="989">
         <v>22</v>
       </c>
-      <c r="K5" s="975"/>
-      <c r="L5" s="975"/>
-      <c r="M5" s="974"/>
-      <c r="N5" t="s" s="973">
+      <c r="K5" s="990"/>
+      <c r="L5" s="990"/>
+      <c r="M5" s="989"/>
+      <c r="N5" t="s" s="988">
         <v>69</v>
       </c>
-      <c r="O5" t="s" s="973">
+      <c r="O5" t="s" s="988">
         <v>70</v>
       </c>
-      <c r="P5" t="s" s="974">
+      <c r="P5" t="s" s="989">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="974">
+      <c r="Q5" t="s" s="989">
         <v>29</v>
       </c>
-      <c r="R5" t="s" s="974">
+      <c r="R5" t="s" s="989">
         <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="977">
+      <c r="A6" t="s" s="992">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="977">
+      <c r="B6" t="s" s="992">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="977">
+      <c r="C6" t="s" s="992">
         <v>64</v>
       </c>
-      <c r="D6" t="s" s="977">
+      <c r="D6" t="s" s="992">
         <v>77</v>
       </c>
-      <c r="E6" t="s" s="977">
+      <c r="E6" t="s" s="992">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="977">
+      <c r="F6" t="s" s="992">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="977">
+      <c r="G6" t="s" s="992">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="978">
+      <c r="H6" t="s" s="993">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="980">
+      <c r="I6" t="s" s="995">
         <v>25</v>
       </c>
-      <c r="J6" t="s" s="978">
+      <c r="J6" t="s" s="993">
         <v>22</v>
       </c>
-      <c r="K6" s="979"/>
-      <c r="L6" s="979"/>
-      <c r="M6" s="978"/>
-      <c r="N6" t="s" s="977">
+      <c r="K6" s="994"/>
+      <c r="L6" s="994"/>
+      <c r="M6" s="993"/>
+      <c r="N6" t="s" s="992">
         <v>69</v>
       </c>
-      <c r="O6" t="s" s="977">
+      <c r="O6" t="s" s="992">
         <v>71</v>
       </c>
-      <c r="P6" t="s" s="978">
+      <c r="P6" t="s" s="993">
         <v>43</v>
       </c>
-      <c r="Q6" t="s" s="978">
+      <c r="Q6" t="s" s="993">
         <v>29</v>
       </c>
-      <c r="R6" t="s" s="978">
+      <c r="R6" t="s" s="993">
         <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="981">
+      <c r="A7" t="s" s="996">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="981">
+      <c r="B7" t="s" s="996">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="981">
+      <c r="C7" t="s" s="996">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="981">
+      <c r="D7" t="s" s="996">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="981">
+      <c r="E7" t="s" s="996">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="981">
+      <c r="F7" t="s" s="996">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="981">
+      <c r="G7" t="s" s="996">
         <v>28</v>
       </c>
-      <c r="H7" t="s" s="982">
+      <c r="H7" t="s" s="997">
         <v>82</v>
       </c>
-      <c r="I7" t="s" s="984">
+      <c r="I7" t="s" s="999">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="982">
+      <c r="J7" t="s" s="997">
         <v>17</v>
       </c>
-      <c r="K7" s="983"/>
-      <c r="L7" s="983"/>
-      <c r="M7" s="982"/>
-      <c r="N7" t="s" s="981">
+      <c r="K7" s="998"/>
+      <c r="L7" s="998"/>
+      <c r="M7" s="997"/>
+      <c r="N7" t="s" s="996">
         <v>80</v>
       </c>
-      <c r="O7" t="s" s="981">
+      <c r="O7" t="s" s="996">
         <v>68</v>
       </c>
-      <c r="P7" t="s" s="982">
+      <c r="P7" t="s" s="997">
         <v>43</v>
       </c>
-      <c r="Q7" t="s" s="982">
+      <c r="Q7" t="s" s="997">
         <v>29</v>
       </c>
-      <c r="R7" t="s" s="982">
+      <c r="R7" t="s" s="997">
         <v>83</v>
       </c>
     </row>
@@ -5976,7 +6048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -6005,110 +6077,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="940" t="s">
+      <c r="A1" s="955" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="941" t="s">
+      <c r="B1" s="956" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="942" t="s">
+      <c r="C1" s="957" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="943" t="s">
+      <c r="D1" s="958" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="944" t="s">
+      <c r="E1" s="959" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="945" t="s">
+      <c r="F1" s="960" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="946" t="s">
+      <c r="G1" s="961" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="947" t="s">
+      <c r="H1" s="962" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="948" t="s">
+      <c r="I1" s="963" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="949" t="s">
+      <c r="J1" s="964" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="950" t="s">
+      <c r="K1" s="965" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="951" t="s">
+      <c r="L1" s="966" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="952" t="s">
+      <c r="M1" s="967" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="953" t="s">
+      <c r="N1" s="968" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="954" t="s">
+      <c r="O1" s="969" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="955" t="s">
+      <c r="P1" s="970" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="956" t="s">
+      <c r="Q1" s="971" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="957" t="s">
+      <c r="R1" s="972" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="985">
+      <c r="A2" t="s" s="1000">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="985">
+      <c r="B2" t="s" s="1000">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="985">
+      <c r="C2" t="s" s="1000">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="985">
+      <c r="D2" t="s" s="1000">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="985">
+      <c r="E2" t="s" s="1000">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="985">
+      <c r="F2" t="s" s="1000">
         <v>56</v>
       </c>
-      <c r="G2" t="s" s="985">
+      <c r="G2" t="s" s="1000">
         <v>36</v>
       </c>
-      <c r="H2" t="s" s="986">
+      <c r="H2" t="s" s="1001">
         <v>55</v>
       </c>
-      <c r="I2" t="s" s="988">
+      <c r="I2" t="s" s="1003">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="986">
+      <c r="J2" t="s" s="1001">
         <v>22</v>
       </c>
-      <c r="K2" t="n" s="987">
+      <c r="K2" t="n" s="1002">
         <v>43166.0</v>
       </c>
-      <c r="L2" s="987"/>
-      <c r="M2" s="986"/>
-      <c r="N2" t="s" s="985">
+      <c r="L2" s="1002"/>
+      <c r="M2" s="1001"/>
+      <c r="N2" t="s" s="1000">
         <v>60</v>
       </c>
-      <c r="O2" t="s" s="985">
+      <c r="O2" t="s" s="1000">
         <v>67</v>
       </c>
-      <c r="P2" t="s" s="986">
+      <c r="P2" t="s" s="1001">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="986">
+      <c r="Q2" t="s" s="1001">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="986">
+      <c r="R2" t="s" s="1001">
         <v>43</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="185"/>
-    <sheet name="E30" r:id="rId10" sheetId="186"/>
-    <sheet name="E32" r:id="rId11" sheetId="187"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="188"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="189"/>
+    <sheet name="E31" r:id="rId9" sheetId="190"/>
+    <sheet name="E30" r:id="rId10" sheetId="191"/>
+    <sheet name="E32" r:id="rId11" sheetId="192"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="193"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="194"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="137" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1143,8 +1143,68 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="133">
+  <fills count="141">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1824,8 +1884,48 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2055,6 +2155,13 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2101,7 +2208,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1004">
+  <cellXfs count="1086">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4866,49 +4973,295 @@
     <xf applyBorder="true" applyFill="true" borderId="35" fillId="122" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="126" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="126" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="126" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="130" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="130" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="37" fillId="130" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="130" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="130" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="130" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="130" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="37" fillId="130" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="130" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="130" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="130" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="130" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="37" fillId="130" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="130" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="130" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="37" fillId="128" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="128" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="37" fillId="128" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="128" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="132" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="132" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="37" fillId="132" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="132" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="128" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="37" fillId="128" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="128" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -5019,97 +5372,97 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="137" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="138" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="139" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="140" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="141" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="130" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="142" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="143" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="144" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="132" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="145" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="128" borderId="37" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="146" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5462,7 +5815,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet190.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5476,30 +5829,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="922" t="s">
+      <c r="A1" s="1004" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="922" t="s">
+      <c r="B1" s="1004" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="922" t="s">
+      <c r="C1" s="1004" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="922" t="s">
+      <c r="D1" s="1004" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="923">
+      <c r="A2" t="s" s="1005">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="924">
+      <c r="B2" t="s" s="1006">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="923">
+      <c r="C2" t="s" s="1005">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="923">
+      <c r="D2" t="s" s="1005">
         <v>73</v>
       </c>
     </row>
@@ -5508,7 +5861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet191.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5522,86 +5875,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="925" t="s">
+      <c r="A1" s="1007" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="925" t="s">
+      <c r="B1" s="1007" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="925" t="s">
+      <c r="C1" s="1007" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="925" t="s">
+      <c r="D1" s="1007" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="926">
+      <c r="A2" t="s" s="1008">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="927">
+      <c r="B2" t="s" s="1009">
         <v>82</v>
       </c>
-      <c r="C2" t="s" s="926">
+      <c r="C2" t="s" s="1008">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="926">
+      <c r="D2" t="s" s="1008">
         <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="928">
+      <c r="A3" t="s" s="1010">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="929">
+      <c r="B3" t="s" s="1011">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="928">
+      <c r="C3" t="s" s="1010">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="928">
+      <c r="D3" t="s" s="1010">
         <v>73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="930">
+      <c r="A4" t="s" s="1012">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="931">
+      <c r="B4" t="s" s="1013">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="930">
+      <c r="C4" t="s" s="1012">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="930">
+      <c r="D4" t="s" s="1012">
         <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="932">
+      <c r="A5" t="s" s="1014">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="933">
+      <c r="B5" t="s" s="1015">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="932">
+      <c r="C5" t="s" s="1014">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="932">
+      <c r="D5" t="s" s="1014">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="934">
+      <c r="A6" t="s" s="1016">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="935">
+      <c r="B6" t="s" s="1017">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="934">
+      <c r="C6" t="s" s="1016">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="934">
+      <c r="D6" t="s" s="1016">
         <v>73</v>
       </c>
     </row>
@@ -5610,7 +5963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet187.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet192.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5624,16 +5977,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="936" t="s">
+      <c r="A1" s="1018" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="936" t="s">
+      <c r="B1" s="1018" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="936" t="s">
+      <c r="C1" s="1018" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="936" t="s">
+      <c r="D1" s="1018" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5642,7 +5995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet188.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet193.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -5671,364 +6024,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="937" t="s">
+      <c r="A1" s="1019" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="938" t="s">
+      <c r="B1" s="1020" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="939" t="s">
+      <c r="C1" s="1021" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="940" t="s">
+      <c r="D1" s="1022" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="941" t="s">
+      <c r="E1" s="1023" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="942" t="s">
+      <c r="F1" s="1024" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="943" t="s">
+      <c r="G1" s="1025" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="944" t="s">
+      <c r="H1" s="1026" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="945" t="s">
+      <c r="I1" s="1027" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="946" t="s">
+      <c r="J1" s="1028" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="947" t="s">
+      <c r="K1" s="1029" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="948" t="s">
+      <c r="L1" s="1030" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="949" t="s">
+      <c r="M1" s="1031" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="950" t="s">
+      <c r="N1" s="1032" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="951" t="s">
+      <c r="O1" s="1033" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="952" t="s">
+      <c r="P1" s="1034" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="953" t="s">
+      <c r="Q1" s="1035" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="954" t="s">
+      <c r="R1" s="1036" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="973">
+      <c r="A2" t="s" s="1055">
         <v>79</v>
       </c>
-      <c r="B2" t="s" s="973">
+      <c r="B2" t="s" s="1055">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="973">
+      <c r="C2" t="s" s="1055">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="973">
+      <c r="D2" t="s" s="1055">
         <v>74</v>
       </c>
-      <c r="E2" t="s" s="973">
+      <c r="E2" t="s" s="1055">
         <v>30</v>
       </c>
-      <c r="F2" t="s" s="973">
+      <c r="F2" t="s" s="1055">
         <v>31</v>
       </c>
-      <c r="G2" t="s" s="973">
+      <c r="G2" t="s" s="1055">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="974">
+      <c r="H2" t="s" s="1056">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="976">
+      <c r="I2" t="s" s="1058">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="974">
+      <c r="J2" t="s" s="1056">
         <v>17</v>
       </c>
-      <c r="K2" s="975"/>
-      <c r="L2" s="975"/>
-      <c r="M2" s="977" t="n">
+      <c r="K2" s="1057"/>
+      <c r="L2" s="1057"/>
+      <c r="M2" s="1059" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N2" t="s" s="973">
+      <c r="N2" t="s" s="1055">
         <v>61</v>
       </c>
-      <c r="O2" t="s" s="973">
+      <c r="O2" t="s" s="1055">
         <v>62</v>
       </c>
-      <c r="P2" t="s" s="974">
+      <c r="P2" t="s" s="1056">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="974">
+      <c r="Q2" t="s" s="1056">
         <v>33</v>
       </c>
-      <c r="R2" t="s" s="974">
+      <c r="R2" t="s" s="1056">
         <v>83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="978">
+      <c r="A3" t="s" s="1060">
         <v>79</v>
       </c>
-      <c r="B3" t="s" s="978">
+      <c r="B3" t="s" s="1060">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="978">
+      <c r="C3" t="s" s="1060">
         <v>66</v>
       </c>
-      <c r="D3" t="s" s="978">
+      <c r="D3" t="s" s="1060">
         <v>75</v>
       </c>
-      <c r="E3" t="s" s="978">
+      <c r="E3" t="s" s="1060">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="978">
+      <c r="F3" t="s" s="1060">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="978">
+      <c r="G3" t="s" s="1060">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="979">
+      <c r="H3" t="s" s="1061">
         <v>46</v>
       </c>
-      <c r="I3" t="s" s="981">
+      <c r="I3" t="s" s="1063">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="979">
+      <c r="J3" t="s" s="1061">
         <v>17</v>
       </c>
-      <c r="K3" s="980"/>
-      <c r="L3" s="980"/>
-      <c r="M3" s="982" t="n">
+      <c r="K3" s="1062"/>
+      <c r="L3" s="1062"/>
+      <c r="M3" s="1064" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N3" t="s" s="978">
+      <c r="N3" t="s" s="1060">
         <v>61</v>
       </c>
-      <c r="O3" t="s" s="978">
+      <c r="O3" t="s" s="1060">
         <v>59</v>
       </c>
-      <c r="P3" t="s" s="979">
+      <c r="P3" t="s" s="1061">
         <v>43</v>
       </c>
-      <c r="Q3" t="s" s="979">
+      <c r="Q3" t="s" s="1061">
         <v>33</v>
       </c>
-      <c r="R3" t="s" s="979">
+      <c r="R3" t="s" s="1061">
         <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="983">
+      <c r="A4" t="s" s="1065">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="983">
+      <c r="B4" t="s" s="1065">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="983">
+      <c r="C4" t="s" s="1065">
         <v>65</v>
       </c>
-      <c r="D4" t="s" s="983">
+      <c r="D4" t="s" s="1065">
         <v>76</v>
       </c>
-      <c r="E4" t="s" s="983">
+      <c r="E4" t="s" s="1065">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="983">
+      <c r="F4" t="s" s="1065">
         <v>38</v>
       </c>
-      <c r="G4" t="s" s="983">
+      <c r="G4" t="s" s="1065">
         <v>39</v>
       </c>
-      <c r="H4" t="s" s="984">
+      <c r="H4" t="s" s="1066">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="986">
+      <c r="I4" t="s" s="1068">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="984">
+      <c r="J4" t="s" s="1066">
         <v>17</v>
       </c>
-      <c r="K4" s="985"/>
-      <c r="L4" s="985"/>
-      <c r="M4" s="987" t="n">
+      <c r="K4" s="1067"/>
+      <c r="L4" s="1067"/>
+      <c r="M4" s="1069" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N4" t="s" s="983">
+      <c r="N4" t="s" s="1065">
         <v>61</v>
       </c>
-      <c r="O4" t="s" s="983">
+      <c r="O4" t="s" s="1065">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="984">
+      <c r="P4" t="s" s="1066">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="984">
+      <c r="Q4" t="s" s="1066">
         <v>33</v>
       </c>
-      <c r="R4" t="s" s="984">
+      <c r="R4" t="s" s="1066">
         <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="988">
+      <c r="A5" t="s" s="1070">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="988">
+      <c r="B5" t="s" s="1070">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="988">
+      <c r="C5" t="s" s="1070">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="988">
+      <c r="D5" t="s" s="1070">
         <v>77</v>
       </c>
-      <c r="E5" t="s" s="988">
+      <c r="E5" t="s" s="1070">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="988">
+      <c r="F5" t="s" s="1070">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="988">
+      <c r="G5" t="s" s="1070">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="989">
+      <c r="H5" t="s" s="1071">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="991">
+      <c r="I5" t="s" s="1073">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="989">
+      <c r="J5" t="s" s="1071">
         <v>22</v>
       </c>
-      <c r="K5" s="990"/>
-      <c r="L5" s="990"/>
-      <c r="M5" s="989"/>
-      <c r="N5" t="s" s="988">
+      <c r="K5" s="1072"/>
+      <c r="L5" s="1072"/>
+      <c r="M5" s="1071"/>
+      <c r="N5" t="s" s="1070">
         <v>69</v>
       </c>
-      <c r="O5" t="s" s="988">
+      <c r="O5" t="s" s="1070">
         <v>70</v>
       </c>
-      <c r="P5" t="s" s="989">
+      <c r="P5" t="s" s="1071">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="989">
+      <c r="Q5" t="s" s="1071">
         <v>29</v>
       </c>
-      <c r="R5" t="s" s="989">
+      <c r="R5" t="s" s="1071">
         <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="992">
+      <c r="A6" t="s" s="1074">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="992">
+      <c r="B6" t="s" s="1074">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="992">
+      <c r="C6" t="s" s="1074">
         <v>64</v>
       </c>
-      <c r="D6" t="s" s="992">
+      <c r="D6" t="s" s="1074">
         <v>77</v>
       </c>
-      <c r="E6" t="s" s="992">
+      <c r="E6" t="s" s="1074">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="992">
+      <c r="F6" t="s" s="1074">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="992">
+      <c r="G6" t="s" s="1074">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="993">
+      <c r="H6" t="s" s="1075">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="995">
+      <c r="I6" t="s" s="1077">
         <v>25</v>
       </c>
-      <c r="J6" t="s" s="993">
+      <c r="J6" t="s" s="1075">
         <v>22</v>
       </c>
-      <c r="K6" s="994"/>
-      <c r="L6" s="994"/>
-      <c r="M6" s="993"/>
-      <c r="N6" t="s" s="992">
+      <c r="K6" s="1076"/>
+      <c r="L6" s="1076"/>
+      <c r="M6" s="1075"/>
+      <c r="N6" t="s" s="1074">
         <v>69</v>
       </c>
-      <c r="O6" t="s" s="992">
+      <c r="O6" t="s" s="1074">
         <v>71</v>
       </c>
-      <c r="P6" t="s" s="993">
+      <c r="P6" t="s" s="1075">
         <v>43</v>
       </c>
-      <c r="Q6" t="s" s="993">
+      <c r="Q6" t="s" s="1075">
         <v>29</v>
       </c>
-      <c r="R6" t="s" s="993">
+      <c r="R6" t="s" s="1075">
         <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="996">
+      <c r="A7" t="s" s="1078">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="996">
+      <c r="B7" t="s" s="1078">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="996">
+      <c r="C7" t="s" s="1078">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="996">
+      <c r="D7" t="s" s="1078">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="996">
+      <c r="E7" t="s" s="1078">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="996">
+      <c r="F7" t="s" s="1078">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="996">
+      <c r="G7" t="s" s="1078">
         <v>28</v>
       </c>
-      <c r="H7" t="s" s="997">
+      <c r="H7" t="s" s="1079">
         <v>82</v>
       </c>
-      <c r="I7" t="s" s="999">
+      <c r="I7" t="s" s="1081">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="997">
+      <c r="J7" t="s" s="1079">
         <v>17</v>
       </c>
-      <c r="K7" s="998"/>
-      <c r="L7" s="998"/>
-      <c r="M7" s="997"/>
-      <c r="N7" t="s" s="996">
+      <c r="K7" s="1080"/>
+      <c r="L7" s="1080"/>
+      <c r="M7" s="1079"/>
+      <c r="N7" t="s" s="1078">
         <v>80</v>
       </c>
-      <c r="O7" t="s" s="996">
+      <c r="O7" t="s" s="1078">
         <v>68</v>
       </c>
-      <c r="P7" t="s" s="997">
+      <c r="P7" t="s" s="1079">
         <v>43</v>
       </c>
-      <c r="Q7" t="s" s="997">
+      <c r="Q7" t="s" s="1079">
         <v>29</v>
       </c>
-      <c r="R7" t="s" s="997">
+      <c r="R7" t="s" s="1079">
         <v>83</v>
       </c>
     </row>
@@ -6048,7 +6401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet189.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet194.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -6077,110 +6430,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="955" t="s">
+      <c r="A1" s="1037" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="956" t="s">
+      <c r="B1" s="1038" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="957" t="s">
+      <c r="C1" s="1039" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="958" t="s">
+      <c r="D1" s="1040" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="959" t="s">
+      <c r="E1" s="1041" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="960" t="s">
+      <c r="F1" s="1042" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="961" t="s">
+      <c r="G1" s="1043" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="962" t="s">
+      <c r="H1" s="1044" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="963" t="s">
+      <c r="I1" s="1045" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="964" t="s">
+      <c r="J1" s="1046" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="965" t="s">
+      <c r="K1" s="1047" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="966" t="s">
+      <c r="L1" s="1048" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="967" t="s">
+      <c r="M1" s="1049" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="968" t="s">
+      <c r="N1" s="1050" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="969" t="s">
+      <c r="O1" s="1051" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="970" t="s">
+      <c r="P1" s="1052" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="971" t="s">
+      <c r="Q1" s="1053" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="972" t="s">
+      <c r="R1" s="1054" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1000">
+      <c r="A2" t="s" s="1082">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="1000">
+      <c r="B2" t="s" s="1082">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="1000">
+      <c r="C2" t="s" s="1082">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="1000">
+      <c r="D2" t="s" s="1082">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s" s="1082">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s" s="1082">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s" s="1082">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s" s="1083">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s" s="1085">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s" s="1083">
+        <v>22</v>
+      </c>
+      <c r="K2" t="n" s="1084">
+        <v>43166.0</v>
+      </c>
+      <c r="L2" s="1084"/>
+      <c r="M2" s="1083"/>
+      <c r="N2" t="s" s="1082">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s" s="1082">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s" s="1083">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="1000">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s" s="1000">
-        <v>56</v>
-      </c>
-      <c r="G2" t="s" s="1000">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s" s="1001">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s" s="1003">
-        <v>54</v>
-      </c>
-      <c r="J2" t="s" s="1001">
-        <v>22</v>
-      </c>
-      <c r="K2" t="n" s="1002">
-        <v>43166.0</v>
-      </c>
-      <c r="L2" s="1002"/>
-      <c r="M2" s="1001"/>
-      <c r="N2" t="s" s="1000">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s" s="1000">
-        <v>67</v>
-      </c>
-      <c r="P2" t="s" s="1001">
-        <v>43</v>
-      </c>
-      <c r="Q2" t="s" s="1001">
+      <c r="Q2" t="s" s="1083">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="1001">
+      <c r="R2" t="s" s="1083">
         <v>43</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="190"/>
-    <sheet name="E30" r:id="rId10" sheetId="191"/>
-    <sheet name="E32" r:id="rId11" sheetId="192"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="193"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="194"/>
+    <sheet name="E31" r:id="rId9" sheetId="195"/>
+    <sheet name="E30" r:id="rId10" sheetId="196"/>
+    <sheet name="E32" r:id="rId11" sheetId="197"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="198"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="199"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="157" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,8 +1203,68 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="141">
+  <fills count="149">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1924,8 +1984,48 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -2162,6 +2262,13 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2208,7 +2315,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1086">
+  <cellXfs count="1168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5219,49 +5326,295 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="37" fillId="128" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="134" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="134" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="134" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="138" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="138" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="39" fillId="138" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="138" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="138" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="138" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="138" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="39" fillId="138" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="138" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="138" fontId="140" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="138" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="138" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="39" fillId="138" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="138" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="138" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="39" fillId="136" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="136" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="39" fillId="136" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="136" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="140" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="140" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="39" fillId="140" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="140" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="136" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="39" fillId="136" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="39" fillId="136" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -5372,97 +5725,97 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="147" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="148" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="149" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="150" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="138" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="152" fillId="146" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="153" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="154" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="148" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="140" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="155" fillId="148" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="136" borderId="39" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="156" fillId="144" borderId="41" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5815,7 +6168,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet190.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet195.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5829,30 +6182,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1004" t="s">
+      <c r="A1" s="1086" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1004" t="s">
+      <c r="B1" s="1086" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1004" t="s">
+      <c r="C1" s="1086" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1004" t="s">
+      <c r="D1" s="1086" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1005">
+      <c r="A2" t="s" s="1087">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="1006">
+      <c r="B2" t="s" s="1088">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="1005">
+      <c r="C2" t="s" s="1087">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="1005">
+      <c r="D2" t="s" s="1087">
         <v>73</v>
       </c>
     </row>
@@ -5861,7 +6214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet191.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet196.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -5875,86 +6228,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1007" t="s">
+      <c r="A1" s="1089" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1007" t="s">
+      <c r="B1" s="1089" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1007" t="s">
+      <c r="C1" s="1089" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1007" t="s">
+      <c r="D1" s="1089" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1008">
+      <c r="A2" t="s" s="1090">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="1009">
+      <c r="B2" t="s" s="1091">
         <v>82</v>
       </c>
-      <c r="C2" t="s" s="1008">
+      <c r="C2" t="s" s="1090">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="1008">
+      <c r="D2" t="s" s="1090">
         <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1010">
+      <c r="A3" t="s" s="1092">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="1011">
+      <c r="B3" t="s" s="1093">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="1010">
+      <c r="C3" t="s" s="1092">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="1010">
+      <c r="D3" t="s" s="1092">
         <v>73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1012">
+      <c r="A4" t="s" s="1094">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="1013">
+      <c r="B4" t="s" s="1095">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="1012">
+      <c r="C4" t="s" s="1094">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="1012">
+      <c r="D4" t="s" s="1094">
         <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1014">
+      <c r="A5" t="s" s="1096">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="1015">
+      <c r="B5" t="s" s="1097">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="1014">
+      <c r="C5" t="s" s="1096">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="1014">
+      <c r="D5" t="s" s="1096">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1016">
+      <c r="A6" t="s" s="1098">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="1017">
+      <c r="B6" t="s" s="1099">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="1016">
+      <c r="C6" t="s" s="1098">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="1016">
+      <c r="D6" t="s" s="1098">
         <v>73</v>
       </c>
     </row>
@@ -5963,7 +6316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet192.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet197.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -5977,16 +6330,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1018" t="s">
+      <c r="A1" s="1100" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1018" t="s">
+      <c r="B1" s="1100" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1018" t="s">
+      <c r="C1" s="1100" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1018" t="s">
+      <c r="D1" s="1100" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5995,7 +6348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet193.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet198.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -6024,364 +6377,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1019" t="s">
+      <c r="A1" s="1101" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1020" t="s">
+      <c r="B1" s="1102" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1021" t="s">
+      <c r="C1" s="1103" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1022" t="s">
+      <c r="D1" s="1104" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1023" t="s">
+      <c r="E1" s="1105" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1024" t="s">
+      <c r="F1" s="1106" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1025" t="s">
+      <c r="G1" s="1107" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1026" t="s">
+      <c r="H1" s="1108" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1027" t="s">
+      <c r="I1" s="1109" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1028" t="s">
+      <c r="J1" s="1110" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1029" t="s">
+      <c r="K1" s="1111" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1030" t="s">
+      <c r="L1" s="1112" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="1031" t="s">
+      <c r="M1" s="1113" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1032" t="s">
+      <c r="N1" s="1114" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1033" t="s">
+      <c r="O1" s="1115" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1034" t="s">
+      <c r="P1" s="1116" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1035" t="s">
+      <c r="Q1" s="1117" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1036" t="s">
+      <c r="R1" s="1118" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1055">
+      <c r="A2" t="s" s="1137">
         <v>79</v>
       </c>
-      <c r="B2" t="s" s="1055">
+      <c r="B2" t="s" s="1137">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="1055">
+      <c r="C2" t="s" s="1137">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="1055">
+      <c r="D2" t="s" s="1137">
         <v>74</v>
       </c>
-      <c r="E2" t="s" s="1055">
+      <c r="E2" t="s" s="1137">
         <v>30</v>
       </c>
-      <c r="F2" t="s" s="1055">
+      <c r="F2" t="s" s="1137">
         <v>31</v>
       </c>
-      <c r="G2" t="s" s="1055">
+      <c r="G2" t="s" s="1137">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="1056">
+      <c r="H2" t="s" s="1138">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="1058">
+      <c r="I2" t="s" s="1140">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="1056">
+      <c r="J2" t="s" s="1138">
         <v>17</v>
       </c>
-      <c r="K2" s="1057"/>
-      <c r="L2" s="1057"/>
-      <c r="M2" s="1059" t="n">
+      <c r="K2" s="1139"/>
+      <c r="L2" s="1139"/>
+      <c r="M2" s="1141" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N2" t="s" s="1055">
+      <c r="N2" t="s" s="1137">
         <v>61</v>
       </c>
-      <c r="O2" t="s" s="1055">
+      <c r="O2" t="s" s="1137">
         <v>62</v>
       </c>
-      <c r="P2" t="s" s="1056">
+      <c r="P2" t="s" s="1138">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="1056">
+      <c r="Q2" t="s" s="1138">
         <v>33</v>
       </c>
-      <c r="R2" t="s" s="1056">
+      <c r="R2" t="s" s="1138">
         <v>83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1060">
+      <c r="A3" t="s" s="1142">
         <v>79</v>
       </c>
-      <c r="B3" t="s" s="1060">
+      <c r="B3" t="s" s="1142">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="1060">
+      <c r="C3" t="s" s="1142">
         <v>66</v>
       </c>
-      <c r="D3" t="s" s="1060">
+      <c r="D3" t="s" s="1142">
         <v>75</v>
       </c>
-      <c r="E3" t="s" s="1060">
+      <c r="E3" t="s" s="1142">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="1060">
+      <c r="F3" t="s" s="1142">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="1060">
+      <c r="G3" t="s" s="1142">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="1061">
+      <c r="H3" t="s" s="1143">
         <v>46</v>
       </c>
-      <c r="I3" t="s" s="1063">
+      <c r="I3" t="s" s="1145">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="1061">
+      <c r="J3" t="s" s="1143">
         <v>17</v>
       </c>
-      <c r="K3" s="1062"/>
-      <c r="L3" s="1062"/>
-      <c r="M3" s="1064" t="n">
+      <c r="K3" s="1144"/>
+      <c r="L3" s="1144"/>
+      <c r="M3" s="1146" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N3" t="s" s="1060">
+      <c r="N3" t="s" s="1142">
         <v>61</v>
       </c>
-      <c r="O3" t="s" s="1060">
+      <c r="O3" t="s" s="1142">
         <v>59</v>
       </c>
-      <c r="P3" t="s" s="1061">
+      <c r="P3" t="s" s="1143">
         <v>43</v>
       </c>
-      <c r="Q3" t="s" s="1061">
+      <c r="Q3" t="s" s="1143">
         <v>33</v>
       </c>
-      <c r="R3" t="s" s="1061">
+      <c r="R3" t="s" s="1143">
         <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1065">
+      <c r="A4" t="s" s="1147">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="1065">
+      <c r="B4" t="s" s="1147">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="1065">
+      <c r="C4" t="s" s="1147">
         <v>65</v>
       </c>
-      <c r="D4" t="s" s="1065">
+      <c r="D4" t="s" s="1147">
         <v>76</v>
       </c>
-      <c r="E4" t="s" s="1065">
+      <c r="E4" t="s" s="1147">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="1065">
+      <c r="F4" t="s" s="1147">
         <v>38</v>
       </c>
-      <c r="G4" t="s" s="1065">
+      <c r="G4" t="s" s="1147">
         <v>39</v>
       </c>
-      <c r="H4" t="s" s="1066">
+      <c r="H4" t="s" s="1148">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="1068">
+      <c r="I4" t="s" s="1150">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="1066">
+      <c r="J4" t="s" s="1148">
         <v>17</v>
       </c>
-      <c r="K4" s="1067"/>
-      <c r="L4" s="1067"/>
-      <c r="M4" s="1069" t="n">
+      <c r="K4" s="1149"/>
+      <c r="L4" s="1149"/>
+      <c r="M4" s="1151" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N4" t="s" s="1065">
+      <c r="N4" t="s" s="1147">
         <v>61</v>
       </c>
-      <c r="O4" t="s" s="1065">
+      <c r="O4" t="s" s="1147">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="1066">
+      <c r="P4" t="s" s="1148">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="1066">
+      <c r="Q4" t="s" s="1148">
         <v>33</v>
       </c>
-      <c r="R4" t="s" s="1066">
+      <c r="R4" t="s" s="1148">
         <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1070">
+      <c r="A5" t="s" s="1152">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="1070">
+      <c r="B5" t="s" s="1152">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="1070">
+      <c r="C5" t="s" s="1152">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="1070">
+      <c r="D5" t="s" s="1152">
         <v>77</v>
       </c>
-      <c r="E5" t="s" s="1070">
+      <c r="E5" t="s" s="1152">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="1070">
+      <c r="F5" t="s" s="1152">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="1070">
+      <c r="G5" t="s" s="1152">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="1071">
+      <c r="H5" t="s" s="1153">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="1073">
+      <c r="I5" t="s" s="1155">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="1071">
+      <c r="J5" t="s" s="1153">
         <v>22</v>
       </c>
-      <c r="K5" s="1072"/>
-      <c r="L5" s="1072"/>
-      <c r="M5" s="1071"/>
-      <c r="N5" t="s" s="1070">
+      <c r="K5" s="1154"/>
+      <c r="L5" s="1154"/>
+      <c r="M5" s="1153"/>
+      <c r="N5" t="s" s="1152">
         <v>69</v>
       </c>
-      <c r="O5" t="s" s="1070">
+      <c r="O5" t="s" s="1152">
         <v>70</v>
       </c>
-      <c r="P5" t="s" s="1071">
+      <c r="P5" t="s" s="1153">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="1071">
+      <c r="Q5" t="s" s="1153">
         <v>29</v>
       </c>
-      <c r="R5" t="s" s="1071">
+      <c r="R5" t="s" s="1153">
         <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1074">
+      <c r="A6" t="s" s="1156">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="1074">
+      <c r="B6" t="s" s="1156">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="1074">
+      <c r="C6" t="s" s="1156">
         <v>64</v>
       </c>
-      <c r="D6" t="s" s="1074">
+      <c r="D6" t="s" s="1156">
         <v>77</v>
       </c>
-      <c r="E6" t="s" s="1074">
+      <c r="E6" t="s" s="1156">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="1074">
+      <c r="F6" t="s" s="1156">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="1074">
+      <c r="G6" t="s" s="1156">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="1075">
+      <c r="H6" t="s" s="1157">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="1077">
+      <c r="I6" t="s" s="1159">
         <v>25</v>
       </c>
-      <c r="J6" t="s" s="1075">
+      <c r="J6" t="s" s="1157">
         <v>22</v>
       </c>
-      <c r="K6" s="1076"/>
-      <c r="L6" s="1076"/>
-      <c r="M6" s="1075"/>
-      <c r="N6" t="s" s="1074">
+      <c r="K6" s="1158"/>
+      <c r="L6" s="1158"/>
+      <c r="M6" s="1157"/>
+      <c r="N6" t="s" s="1156">
         <v>69</v>
       </c>
-      <c r="O6" t="s" s="1074">
+      <c r="O6" t="s" s="1156">
         <v>71</v>
       </c>
-      <c r="P6" t="s" s="1075">
+      <c r="P6" t="s" s="1157">
         <v>43</v>
       </c>
-      <c r="Q6" t="s" s="1075">
+      <c r="Q6" t="s" s="1157">
         <v>29</v>
       </c>
-      <c r="R6" t="s" s="1075">
+      <c r="R6" t="s" s="1157">
         <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="1078">
+      <c r="A7" t="s" s="1160">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="1078">
+      <c r="B7" t="s" s="1160">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="1078">
+      <c r="C7" t="s" s="1160">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="1078">
+      <c r="D7" t="s" s="1160">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="1078">
+      <c r="E7" t="s" s="1160">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="1078">
+      <c r="F7" t="s" s="1160">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="1078">
+      <c r="G7" t="s" s="1160">
         <v>28</v>
       </c>
-      <c r="H7" t="s" s="1079">
+      <c r="H7" t="s" s="1161">
         <v>82</v>
       </c>
-      <c r="I7" t="s" s="1081">
+      <c r="I7" t="s" s="1163">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="1079">
+      <c r="J7" t="s" s="1161">
         <v>17</v>
       </c>
-      <c r="K7" s="1080"/>
-      <c r="L7" s="1080"/>
-      <c r="M7" s="1079"/>
-      <c r="N7" t="s" s="1078">
+      <c r="K7" s="1162"/>
+      <c r="L7" s="1162"/>
+      <c r="M7" s="1161"/>
+      <c r="N7" t="s" s="1160">
         <v>80</v>
       </c>
-      <c r="O7" t="s" s="1078">
+      <c r="O7" t="s" s="1160">
         <v>68</v>
       </c>
-      <c r="P7" t="s" s="1079">
+      <c r="P7" t="s" s="1161">
         <v>43</v>
       </c>
-      <c r="Q7" t="s" s="1079">
+      <c r="Q7" t="s" s="1161">
         <v>29</v>
       </c>
-      <c r="R7" t="s" s="1079">
+      <c r="R7" t="s" s="1161">
         <v>83</v>
       </c>
     </row>
@@ -6401,7 +6754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet194.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet199.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -6430,110 +6783,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1037" t="s">
+      <c r="A1" s="1119" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1038" t="s">
+      <c r="B1" s="1120" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1039" t="s">
+      <c r="C1" s="1121" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1040" t="s">
+      <c r="D1" s="1122" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1041" t="s">
+      <c r="E1" s="1123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1042" t="s">
+      <c r="F1" s="1124" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1043" t="s">
+      <c r="G1" s="1125" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1044" t="s">
+      <c r="H1" s="1126" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1045" t="s">
+      <c r="I1" s="1127" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1046" t="s">
+      <c r="J1" s="1128" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1047" t="s">
+      <c r="K1" s="1129" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1048" t="s">
+      <c r="L1" s="1130" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="1049" t="s">
+      <c r="M1" s="1131" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1050" t="s">
+      <c r="N1" s="1132" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1051" t="s">
+      <c r="O1" s="1133" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1052" t="s">
+      <c r="P1" s="1134" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1053" t="s">
+      <c r="Q1" s="1135" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1054" t="s">
+      <c r="R1" s="1136" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1082">
+      <c r="A2" t="s" s="1164">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="1082">
+      <c r="B2" t="s" s="1164">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="1082">
+      <c r="C2" t="s" s="1164">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="1082">
+      <c r="D2" t="s" s="1164">
         <v>77</v>
       </c>
-      <c r="E2" t="s" s="1082">
+      <c r="E2" t="s" s="1164">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="1082">
+      <c r="F2" t="s" s="1164">
         <v>56</v>
       </c>
-      <c r="G2" t="s" s="1082">
+      <c r="G2" t="s" s="1164">
         <v>36</v>
       </c>
-      <c r="H2" t="s" s="1083">
+      <c r="H2" t="s" s="1165">
         <v>55</v>
       </c>
-      <c r="I2" t="s" s="1085">
+      <c r="I2" t="s" s="1167">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="1083">
+      <c r="J2" t="s" s="1165">
         <v>22</v>
       </c>
-      <c r="K2" t="n" s="1084">
+      <c r="K2" t="n" s="1166">
         <v>43166.0</v>
       </c>
-      <c r="L2" s="1084"/>
-      <c r="M2" s="1083"/>
-      <c r="N2" t="s" s="1082">
+      <c r="L2" s="1166"/>
+      <c r="M2" s="1165"/>
+      <c r="N2" t="s" s="1164">
         <v>60</v>
       </c>
-      <c r="O2" t="s" s="1082">
+      <c r="O2" t="s" s="1164">
         <v>67</v>
       </c>
-      <c r="P2" t="s" s="1083">
+      <c r="P2" t="s" s="1165">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="1083">
+      <c r="Q2" t="s" s="1165">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="1083">
+      <c r="R2" t="s" s="1165">
         <v>43</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="238"/>
-    <sheet name="E30" r:id="rId10" sheetId="239"/>
-    <sheet name="E32" r:id="rId11" sheetId="240"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="241"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="242"/>
+    <sheet name="E31" r:id="rId9" sheetId="248"/>
+    <sheet name="E30" r:id="rId10" sheetId="249"/>
+    <sheet name="E32" r:id="rId11" sheetId="250"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="251"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="252"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="87">
   <si>
     <t>Edition</t>
   </si>
@@ -297,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,8 +556,116 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,8 +890,68 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -940,6 +1108,20 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -986,7 +1168,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="337">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1490,6 +1672,510 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="39" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="16" fillId="47" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="47" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="47" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="16" fillId="47" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="47" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="47" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="47" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="16" fillId="47" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="47" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="47" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="16" fillId="45" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="45" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="16" fillId="45" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="45" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="45" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="16" fillId="45" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="16" fillId="45" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="49" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="18" fillId="53" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="53" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="53" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="18" fillId="53" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="53" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="53" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="53" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="18" fillId="53" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="53" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="53" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="18" fillId="51" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="51" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="18" fillId="51" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="51" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="51" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="18" fillId="51" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="51" fontId="55" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1842,7 +2528,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet238.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet248.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1857,30 +2543,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="253" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="253" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="255" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="254" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="254" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1889,7 +2575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet239.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet249.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1904,86 +2590,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="256" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="256" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="257" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="258" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="257" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="257" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="259" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="260" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="259" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="259" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="261" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="261" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="263" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="263" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="263" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="266" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="265" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="265" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1992,7 +2678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet250.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2007,16 +2693,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="267" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="267" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="267" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2025,7 +2711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet251.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -2057,415 +2743,415 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="269" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="275" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="276" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="277" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="111" t="s">
+      <c r="L1" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="280" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="113" t="s">
+      <c r="N1" s="281" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="114" t="s">
+      <c r="O1" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="115" t="s">
+      <c r="P1" s="283" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="116" t="s">
+      <c r="Q1" s="284" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="117" t="s">
+      <c r="R1" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="286" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="119" t="s">
+      <c r="T1" s="287" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="120" t="s">
+      <c r="U1" s="288" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="310" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="310" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="310" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="310" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="142" t="s">
+      <c r="G2" s="310" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="143" t="s">
+      <c r="H2" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="143" t="s">
+      <c r="J2" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="143" t="s">
+      <c r="K2" s="311" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="146" t="n">
+      <c r="L2" s="314" t="n">
         <v>312996.0</v>
       </c>
-      <c r="M2" s="143" t="s">
+      <c r="M2" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="142" t="s">
+      <c r="N2" s="312"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="312"/>
+      <c r="Q2" s="310" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="142" t="s">
+      <c r="R2" s="310" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="143" t="s">
+      <c r="S2" s="311" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="143" t="s">
+      <c r="T2" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="143" t="s">
+      <c r="U2" s="311" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="315" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="315" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="315" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="315" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="315" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="316" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="150" t="s">
+      <c r="I3" s="318" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="316" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="316" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="151" t="n">
+      <c r="L3" s="319" t="n">
         <v>313058.0</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="147" t="s">
+      <c r="N3" s="317"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="317"/>
+      <c r="Q3" s="315" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="147" t="s">
+      <c r="R3" s="315" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="148" t="s">
+      <c r="S3" s="316" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="148" t="s">
+      <c r="T3" s="316" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="148" t="s">
+      <c r="U3" s="316" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="320" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="320" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="320" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="320" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="152" t="s">
+      <c r="E4" s="320" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="F4" s="320" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="320" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="321" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="323" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="153" t="s">
+      <c r="J4" s="321" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="153" t="s">
+      <c r="K4" s="321" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="156" t="n">
+      <c r="L4" s="324" t="n">
         <v>312946.0</v>
       </c>
-      <c r="M4" s="153" t="s">
+      <c r="M4" s="321" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="152" t="s">
+      <c r="N4" s="322"/>
+      <c r="O4" s="322"/>
+      <c r="P4" s="322"/>
+      <c r="Q4" s="320" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="152" t="s">
+      <c r="R4" s="320" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="153" t="s">
+      <c r="S4" s="321" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="153" t="s">
+      <c r="T4" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="153" t="s">
+      <c r="U4" s="321" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="325" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="325" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="157" t="s">
+      <c r="C5" s="325" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="157" t="s">
+      <c r="D5" s="325" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="325" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="157" t="s">
+      <c r="G5" s="325" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="158" t="s">
+      <c r="H5" s="326" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="328" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="158" t="s">
+      <c r="J5" s="326" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="158" t="s">
+      <c r="K5" s="326" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158" t="s">
+      <c r="L5" s="326"/>
+      <c r="M5" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="157" t="s">
+      <c r="N5" s="327"/>
+      <c r="O5" s="327"/>
+      <c r="P5" s="327"/>
+      <c r="Q5" s="325" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="157" t="s">
+      <c r="R5" s="325" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="158" t="s">
+      <c r="S5" s="326" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="158" t="s">
+      <c r="T5" s="326" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="158" t="s">
+      <c r="U5" s="326" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="329" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="161" t="s">
+      <c r="B6" s="329" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="329" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="329" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="161" t="s">
+      <c r="E6" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="161" t="s">
+      <c r="F6" s="329" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="161" t="s">
+      <c r="G6" s="329" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="330" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="164" t="s">
+      <c r="I6" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="162" t="s">
+      <c r="J6" s="330" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="330" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162" t="s">
+      <c r="L6" s="330"/>
+      <c r="M6" s="330" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="161" t="s">
+      <c r="N6" s="331"/>
+      <c r="O6" s="331"/>
+      <c r="P6" s="331"/>
+      <c r="Q6" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="161" t="s">
+      <c r="R6" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="162" t="s">
+      <c r="S6" s="330" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="162" t="s">
+      <c r="T6" s="330" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="162" t="s">
+      <c r="U6" s="330" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="333" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="333" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="333" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="333" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="333" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="333" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="165" t="s">
+      <c r="G7" s="333" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="166" t="s">
+      <c r="H7" s="334" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="168" t="s">
+      <c r="I7" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="166" t="s">
+      <c r="J7" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="166" t="s">
+      <c r="K7" s="334" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166" t="s">
+      <c r="L7" s="334"/>
+      <c r="M7" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="165" t="s">
+      <c r="N7" s="335"/>
+      <c r="O7" s="335"/>
+      <c r="P7" s="335"/>
+      <c r="Q7" s="333" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="165" t="s">
+      <c r="R7" s="333" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="166" t="s">
+      <c r="S7" s="334" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="166" t="s">
+      <c r="T7" s="334" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="166" t="s">
+      <c r="U7" s="334" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2490,7 +3176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet252.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:V1"/>
   <sheetViews>
@@ -2522,67 +3208,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="291" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="293" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="294" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="127" t="s">
+      <c r="G1" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="129" t="s">
+      <c r="I1" s="297" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="130" t="s">
+      <c r="J1" s="298" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="131" t="s">
+      <c r="K1" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="132" t="s">
+      <c r="L1" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="133" t="s">
+      <c r="M1" s="301" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="134" t="s">
+      <c r="N1" s="302" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="135" t="s">
+      <c r="O1" s="303" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="136" t="s">
+      <c r="P1" s="304" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="137" t="s">
+      <c r="Q1" s="305" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="138" t="s">
+      <c r="R1" s="306" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="139" t="s">
+      <c r="S1" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="140" t="s">
+      <c r="T1" s="308" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="141" t="s">
+      <c r="U1" s="309" t="s">
         <v>68</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="248"/>
-    <sheet name="E30" r:id="rId10" sheetId="249"/>
-    <sheet name="E32" r:id="rId11" sheetId="250"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="251"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="252"/>
+    <sheet name="E31" r:id="rId9" sheetId="268"/>
+    <sheet name="E30" r:id="rId10" sheetId="269"/>
+    <sheet name="E32" r:id="rId11" sheetId="270"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="271"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="272"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="87">
   <si>
     <t>Edition</t>
   </si>
@@ -297,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,8 +664,224 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="54">
+  <fills count="78">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,8 +1166,128 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1122,6 +1458,34 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1168,7 +1532,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="673">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2177,6 +2541,1014 @@
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="51" fontId="55" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="55" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="55" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="55" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="20" fillId="59" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="59" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="59" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="20" fillId="59" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="59" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="59" fontId="59" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="59" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="20" fillId="59" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="59" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="59" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="20" fillId="57" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="57" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="20" fillId="57" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="57" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="57" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="20" fillId="57" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="20" fillId="57" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="61" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="22" fillId="65" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="65" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="65" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="22" fillId="65" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="65" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="65" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="22" fillId="65" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="65" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="65" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="22" fillId="63" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="63" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="22" fillId="63" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="63" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="63" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="22" fillId="63" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="63" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="67" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="67" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="67" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="24" fillId="71" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="71" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="71" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="24" fillId="71" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="71" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="71" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="71" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="24" fillId="71" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="71" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="71" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="24" fillId="69" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="69" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="24" fillId="69" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="69" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="69" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="24" fillId="69" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="69" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2528,7 +3900,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet248.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet268.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2536,37 +3908,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.65234375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="589" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="253" t="s">
+      <c r="B1" s="589" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="253" t="s">
+      <c r="C1" s="589" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="253" t="s">
+      <c r="D1" s="589" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="590" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="591" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="254" t="s">
+      <c r="C2" s="590" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="254" t="s">
+      <c r="D2" s="590" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2575,7 +3947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet249.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet269.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2583,93 +3955,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.4921875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.00390625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="592" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="256" t="s">
+      <c r="B1" s="592" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="256" t="s">
+      <c r="C1" s="592" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="256" t="s">
+      <c r="D1" s="592" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="594" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="593" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="257" t="s">
+      <c r="D2" s="593" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="595" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="260" t="s">
+      <c r="B3" s="596" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="595" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="595" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="597" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="262" t="s">
+      <c r="B4" s="598" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="261" t="s">
+      <c r="C4" s="597" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="261" t="s">
+      <c r="D4" s="597" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="599" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="264" t="s">
+      <c r="B5" s="600" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="263" t="s">
+      <c r="C5" s="599" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="263" t="s">
+      <c r="D5" s="599" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="265" t="s">
+      <c r="A6" s="601" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="266" t="s">
+      <c r="B6" s="602" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="265" t="s">
+      <c r="C6" s="601" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="265" t="s">
+      <c r="D6" s="601" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2678,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet250.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet270.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2686,23 +4058,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.34765625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="603" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="603" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="267" t="s">
+      <c r="C1" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="267" t="s">
+      <c r="D1" s="603" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2711,7 +4083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet251.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet271.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -2719,464 +4091,464 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.1171875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.8984375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.4765625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="79.90234375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.92578125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="30.4921875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="41.05859375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.65234375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="7.60546875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="90.91015625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.78515625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.98828125" collapsed="false"/>
+    <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="41.05859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.65234375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="7.60546875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="15.96875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="13.765625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="19.1875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="90.91015625" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="9.265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.98828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="604" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="605" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="270" t="s">
+      <c r="C1" s="606" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="271" t="s">
+      <c r="D1" s="607" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="272" t="s">
+      <c r="E1" s="608" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="273" t="s">
+      <c r="F1" s="609" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="274" t="s">
+      <c r="G1" s="610" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="275" t="s">
+      <c r="H1" s="611" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="276" t="s">
+      <c r="I1" s="612" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="277" t="s">
+      <c r="J1" s="613" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="278" t="s">
+      <c r="K1" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="279" t="s">
+      <c r="L1" s="615" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="280" t="s">
+      <c r="M1" s="616" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="281" t="s">
+      <c r="N1" s="617" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="282" t="s">
+      <c r="O1" s="618" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="283" t="s">
+      <c r="P1" s="619" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="284" t="s">
+      <c r="Q1" s="620" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="285" t="s">
+      <c r="R1" s="621" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="286" t="s">
+      <c r="S1" s="622" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="287" t="s">
+      <c r="T1" s="623" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="288" t="s">
+      <c r="U1" s="624" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="646" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="310" t="s">
+      <c r="B2" s="646" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="310" t="s">
+      <c r="C2" s="646" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="310" t="s">
+      <c r="D2" s="646" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="310" t="s">
+      <c r="E2" s="646" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="310" t="s">
+      <c r="F2" s="646" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="310" t="s">
+      <c r="G2" s="646" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="311" t="s">
+      <c r="H2" s="647" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="313" t="s">
+      <c r="I2" s="649" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="311" t="s">
+      <c r="J2" s="647" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="311" t="s">
+      <c r="K2" s="647" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="314" t="n">
+      <c r="L2" s="650" t="n">
         <v>312996.0</v>
       </c>
-      <c r="M2" s="311" t="s">
+      <c r="M2" s="647" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="312"/>
-      <c r="O2" s="312"/>
-      <c r="P2" s="312"/>
-      <c r="Q2" s="310" t="s">
+      <c r="N2" s="648"/>
+      <c r="O2" s="648"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="646" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="310" t="s">
+      <c r="R2" s="646" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="311" t="s">
+      <c r="S2" s="647" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="311" t="s">
+      <c r="T2" s="647" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="311" t="s">
+      <c r="U2" s="647" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="651" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="315" t="s">
+      <c r="B3" s="651" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="315" t="s">
+      <c r="C3" s="651" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="315" t="s">
+      <c r="D3" s="651" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="315" t="s">
+      <c r="E3" s="651" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="315" t="s">
+      <c r="F3" s="651" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="315" t="s">
+      <c r="G3" s="651" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="316" t="s">
+      <c r="H3" s="652" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="318" t="s">
+      <c r="I3" s="654" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="316" t="s">
+      <c r="J3" s="652" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="316" t="s">
+      <c r="K3" s="652" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="319" t="n">
+      <c r="L3" s="655" t="n">
         <v>313058.0</v>
       </c>
-      <c r="M3" s="316" t="s">
+      <c r="M3" s="652" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="317"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="317"/>
-      <c r="Q3" s="315" t="s">
+      <c r="N3" s="653"/>
+      <c r="O3" s="653"/>
+      <c r="P3" s="653"/>
+      <c r="Q3" s="651" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="651" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="316" t="s">
+      <c r="S3" s="652" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="316" t="s">
+      <c r="T3" s="652" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="316" t="s">
+      <c r="U3" s="652" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="656" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="656" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="320" t="s">
+      <c r="C4" s="656" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="320" t="s">
+      <c r="D4" s="656" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="320" t="s">
+      <c r="E4" s="656" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="320" t="s">
+      <c r="F4" s="656" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="320" t="s">
+      <c r="G4" s="656" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="321" t="s">
+      <c r="H4" s="657" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="323" t="s">
+      <c r="I4" s="659" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="321" t="s">
+      <c r="J4" s="657" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="321" t="s">
+      <c r="K4" s="657" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="324" t="n">
+      <c r="L4" s="660" t="n">
         <v>312946.0</v>
       </c>
-      <c r="M4" s="321" t="s">
+      <c r="M4" s="657" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="322"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="322"/>
-      <c r="Q4" s="320" t="s">
+      <c r="N4" s="658"/>
+      <c r="O4" s="658"/>
+      <c r="P4" s="658"/>
+      <c r="Q4" s="656" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="320" t="s">
+      <c r="R4" s="656" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="321" t="s">
+      <c r="S4" s="657" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="321" t="s">
+      <c r="T4" s="657" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="321" t="s">
+      <c r="U4" s="657" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="325" t="s">
+      <c r="A5" s="661" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="325" t="s">
+      <c r="B5" s="661" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="325" t="s">
+      <c r="C5" s="661" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="325" t="s">
+      <c r="D5" s="661" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="325" t="s">
+      <c r="E5" s="661" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="325" t="s">
+      <c r="F5" s="661" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="325" t="s">
+      <c r="G5" s="661" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="326" t="s">
+      <c r="H5" s="662" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="328" t="s">
+      <c r="I5" s="664" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="326" t="s">
+      <c r="J5" s="662" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="326" t="s">
+      <c r="K5" s="662" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="326"/>
-      <c r="M5" s="326" t="s">
+      <c r="L5" s="662"/>
+      <c r="M5" s="662" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="327"/>
-      <c r="O5" s="327"/>
-      <c r="P5" s="327"/>
-      <c r="Q5" s="325" t="s">
+      <c r="N5" s="663"/>
+      <c r="O5" s="663"/>
+      <c r="P5" s="663"/>
+      <c r="Q5" s="661" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="325" t="s">
+      <c r="R5" s="661" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="326" t="s">
+      <c r="S5" s="662" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="326" t="s">
+      <c r="T5" s="662" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="326" t="s">
+      <c r="U5" s="662" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="329" t="s">
+      <c r="A6" s="665" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="329" t="s">
+      <c r="B6" s="665" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="329" t="s">
+      <c r="C6" s="665" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="329" t="s">
+      <c r="D6" s="665" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="329" t="s">
+      <c r="E6" s="665" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="329" t="s">
+      <c r="F6" s="665" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="329" t="s">
+      <c r="G6" s="665" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="330" t="s">
+      <c r="H6" s="666" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="332" t="s">
+      <c r="I6" s="668" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="330" t="s">
+      <c r="J6" s="666" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="330" t="s">
+      <c r="K6" s="666" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="330"/>
-      <c r="M6" s="330" t="s">
+      <c r="L6" s="666"/>
+      <c r="M6" s="666" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="331"/>
-      <c r="O6" s="331"/>
-      <c r="P6" s="331"/>
-      <c r="Q6" s="329" t="s">
+      <c r="N6" s="667"/>
+      <c r="O6" s="667"/>
+      <c r="P6" s="667"/>
+      <c r="Q6" s="665" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="329" t="s">
+      <c r="R6" s="665" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="330" t="s">
+      <c r="S6" s="666" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="330" t="s">
+      <c r="T6" s="666" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="330" t="s">
+      <c r="U6" s="666" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="333" t="s">
+      <c r="A7" s="669" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="333" t="s">
+      <c r="B7" s="669" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="333" t="s">
+      <c r="C7" s="669" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="333" t="s">
+      <c r="D7" s="669" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="333" t="s">
+      <c r="E7" s="669" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="333" t="s">
+      <c r="F7" s="669" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="333" t="s">
+      <c r="G7" s="669" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="334" t="s">
+      <c r="H7" s="670" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="336" t="s">
+      <c r="I7" s="672" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="334" t="s">
+      <c r="J7" s="670" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="334" t="s">
+      <c r="K7" s="670" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="334"/>
-      <c r="M7" s="334" t="s">
+      <c r="L7" s="670"/>
+      <c r="M7" s="670" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="335"/>
-      <c r="O7" s="335"/>
-      <c r="P7" s="335"/>
-      <c r="Q7" s="333" t="s">
+      <c r="N7" s="671"/>
+      <c r="O7" s="671"/>
+      <c r="P7" s="671"/>
+      <c r="Q7" s="669" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="333" t="s">
+      <c r="R7" s="669" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="334" t="s">
+      <c r="S7" s="670" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="334" t="s">
+      <c r="T7" s="670" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="334" t="s">
+      <c r="U7" s="670" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" error="Valeur pour l'action interdite" errorStyle="stop" errorTitle="Erreur Action" showDropDown="true" sqref="M2:M7" type="list">
+    <dataValidation type="list" sqref="M2:M7" allowBlank="true" errorStyle="stop" showDropDown="false" errorTitle="Erreur Action" error="Valeur pour l'action interdite" showErrorMessage="true">
       <formula1>"A créer,A vérifier,,A assembler,A clôturer"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="L2"/>
-    <hyperlink r:id="rId3" ref="I3"/>
-    <hyperlink r:id="rId4" ref="L3"/>
-    <hyperlink r:id="rId5" ref="I4"/>
-    <hyperlink r:id="rId6" ref="L4"/>
-    <hyperlink r:id="rId7" ref="I5"/>
-    <hyperlink r:id="rId8" ref="I6"/>
-    <hyperlink r:id="rId9" ref="I7"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="L3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="L4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet252.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet272.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:V1"/>
   <sheetViews>
@@ -3184,91 +4556,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.31640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.26171875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.70703125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1953125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.57421875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.5390625" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="7.60546875" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.48046875" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="8.75390625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="9.12109375" collapsed="false"/>
+    <col min="1" max="1" width="10.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.26171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.1953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.57421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.5390625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="7.60546875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="15.96875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="13.765625" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="19.1875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.48046875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="9.265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.75390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="9.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="625" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="626" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="291" t="s">
+      <c r="C1" s="627" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="292" t="s">
+      <c r="D1" s="628" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="293" t="s">
+      <c r="E1" s="629" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="294" t="s">
+      <c r="F1" s="630" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="295" t="s">
+      <c r="G1" s="631" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="296" t="s">
+      <c r="H1" s="632" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="297" t="s">
+      <c r="I1" s="633" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="298" t="s">
+      <c r="J1" s="634" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="299" t="s">
+      <c r="K1" s="635" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="300" t="s">
+      <c r="L1" s="636" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="301" t="s">
+      <c r="M1" s="637" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="302" t="s">
+      <c r="N1" s="638" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="303" t="s">
+      <c r="O1" s="639" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="304" t="s">
+      <c r="P1" s="640" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="305" t="s">
+      <c r="Q1" s="641" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="306" t="s">
+      <c r="R1" s="642" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="307" t="s">
+      <c r="S1" s="643" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="308" t="s">
+      <c r="T1" s="644" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="309" t="s">
+      <c r="U1" s="645" t="s">
         <v>68</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="268"/>
-    <sheet name="E30" r:id="rId10" sheetId="269"/>
-    <sheet name="E32" r:id="rId11" sheetId="270"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="271"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="272"/>
+    <sheet name="E31" r:id="rId9" sheetId="273"/>
+    <sheet name="E30" r:id="rId10" sheetId="274"/>
+    <sheet name="E32" r:id="rId11" sheetId="275"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="276"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="277"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="88">
   <si>
     <t>Edition</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>DATASTAGE - JAVA</t>
+  </si>
+  <si>
+    <t>Terminé</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,8 +883,62 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="78">
+  <fills count="82">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1286,8 +1343,28 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1486,6 +1563,13 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1532,7 +1616,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="673">
+  <cellXfs count="757">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3298,50 +3382,50 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="24" fillId="69" fontId="82" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="73" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="73" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="73" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3469,86 +3553,338 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="77" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="75" borderId="26" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="26" fillId="77" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="77" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="77" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="26" fillId="77" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="77" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="77" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="77" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="26" fillId="77" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="77" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="77" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="26" fillId="75" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="75" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="26" fillId="75" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="75" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="75" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="26" fillId="75" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="75" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="79" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="28" fillId="81" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="28" fillId="81" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="28" fillId="81" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="28" fillId="81" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="28" fillId="81" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="81" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="28" fillId="81" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3900,7 +4236,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet268.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet273.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3908,37 +4244,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.65234375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.65234375" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="589" t="s">
+      <c r="A1" s="673" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="589" t="s">
+      <c r="B1" s="673" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="589" t="s">
+      <c r="C1" s="673" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="589" t="s">
+      <c r="D1" s="673" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="590" t="s">
+      <c r="A2" s="674" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="591" t="s">
+      <c r="B2" s="675" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="590" t="s">
+      <c r="C2" s="674" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="590" t="s">
+      <c r="D2" s="674" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3947,7 +4283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet269.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet274.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3955,93 +4291,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.4921875" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.00390625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="592" t="s">
+      <c r="A1" s="676" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="592" t="s">
+      <c r="B1" s="676" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="592" t="s">
+      <c r="C1" s="676" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="592" t="s">
+      <c r="D1" s="676" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="593" t="s">
+      <c r="A2" s="677" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="594" t="s">
+      <c r="B2" s="678" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="593" t="s">
+      <c r="C2" s="677" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="593" t="s">
+      <c r="D2" s="677" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="595" t="s">
+      <c r="A3" s="679" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="596" t="s">
+      <c r="B3" s="680" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="595" t="s">
+      <c r="C3" s="679" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="595" t="s">
+      <c r="D3" s="679" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="597" t="s">
+      <c r="A4" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="598" t="s">
+      <c r="B4" s="682" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="597" t="s">
+      <c r="C4" s="681" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="597" t="s">
+      <c r="D4" s="681" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="599" t="s">
+      <c r="A5" s="683" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="600" t="s">
+      <c r="B5" s="684" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="599" t="s">
+      <c r="C5" s="683" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="599" t="s">
+      <c r="D5" s="683" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="601" t="s">
+      <c r="A6" s="685" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="602" t="s">
+      <c r="B6" s="686" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="601" t="s">
+      <c r="C6" s="685" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="601" t="s">
+      <c r="D6" s="685" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4050,7 +4386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet270.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet275.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4058,23 +4394,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.34765625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="603" t="s">
+      <c r="A1" s="687" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="603" t="s">
+      <c r="B1" s="687" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="603" t="s">
+      <c r="C1" s="687" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="603" t="s">
+      <c r="D1" s="687" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4083,7 +4419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet271.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet276.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -4091,464 +4427,464 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="30.4921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="41.05859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.65234375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="10.703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="7.60546875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="15.96875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="13.765625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="19.1875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="90.91015625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="9.265625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="10.78515625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.1171875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.8984375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.4765625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="79.90234375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.92578125" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.4921875" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="41.05859375" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.65234375" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.60546875" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="90.91015625" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.78515625" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.98828125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="604" t="s">
+      <c r="A1" s="688" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="605" t="s">
+      <c r="B1" s="689" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="606" t="s">
+      <c r="C1" s="690" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="607" t="s">
+      <c r="D1" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="608" t="s">
+      <c r="E1" s="692" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="609" t="s">
+      <c r="F1" s="693" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="610" t="s">
+      <c r="G1" s="694" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="611" t="s">
+      <c r="H1" s="695" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="612" t="s">
+      <c r="I1" s="696" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="613" t="s">
+      <c r="J1" s="697" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="614" t="s">
+      <c r="K1" s="698" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="615" t="s">
+      <c r="L1" s="699" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="616" t="s">
+      <c r="M1" s="700" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="617" t="s">
+      <c r="N1" s="701" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="618" t="s">
+      <c r="O1" s="702" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="619" t="s">
+      <c r="P1" s="703" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="620" t="s">
+      <c r="Q1" s="704" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="621" t="s">
+      <c r="R1" s="705" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="622" t="s">
+      <c r="S1" s="706" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="623" t="s">
+      <c r="T1" s="707" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="624" t="s">
+      <c r="U1" s="708" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="646" t="s">
+      <c r="A2" s="730" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="646" t="s">
+      <c r="B2" s="730" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="646" t="s">
+      <c r="C2" s="730" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="646" t="s">
+      <c r="D2" s="730" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="646" t="s">
+      <c r="E2" s="730" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="646" t="s">
+      <c r="F2" s="730" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="646" t="s">
+      <c r="G2" s="730" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="647" t="s">
+      <c r="H2" s="731" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="649" t="s">
+      <c r="I2" s="733" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="647" t="s">
+      <c r="J2" s="731" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="647" t="s">
+      <c r="K2" s="731" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="650" t="n">
+      <c r="L2" s="734" t="n">
         <v>312996.0</v>
       </c>
-      <c r="M2" s="647" t="s">
+      <c r="M2" s="731" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="648"/>
-      <c r="O2" s="648"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="646" t="s">
+      <c r="N2" s="732"/>
+      <c r="O2" s="732"/>
+      <c r="P2" s="732"/>
+      <c r="Q2" s="730" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="646" t="s">
+      <c r="R2" s="730" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="647" t="s">
+      <c r="S2" s="731" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="647" t="s">
+      <c r="T2" s="731" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="647" t="s">
+      <c r="U2" s="731" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="651" t="s">
+      <c r="A3" s="735" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="651" t="s">
+      <c r="B3" s="735" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="651" t="s">
+      <c r="C3" s="735" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="651" t="s">
+      <c r="D3" s="735" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="651" t="s">
+      <c r="E3" s="735" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="651" t="s">
+      <c r="F3" s="735" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="651" t="s">
+      <c r="G3" s="735" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="652" t="s">
+      <c r="H3" s="736" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="654" t="s">
+      <c r="I3" s="738" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="652" t="s">
+      <c r="J3" s="736" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="652" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="655" t="n">
+      <c r="K3" s="736" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="739" t="n">
         <v>313058.0</v>
       </c>
-      <c r="M3" s="652" t="s">
+      <c r="M3" s="736" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="653"/>
-      <c r="O3" s="653"/>
-      <c r="P3" s="653"/>
-      <c r="Q3" s="651" t="s">
+      <c r="N3" s="737"/>
+      <c r="O3" s="737"/>
+      <c r="P3" s="737"/>
+      <c r="Q3" s="735" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="651" t="s">
+      <c r="R3" s="735" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="652" t="s">
+      <c r="S3" s="736" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="652" t="s">
+      <c r="T3" s="736" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="652" t="s">
+      <c r="U3" s="736" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="656" t="s">
+      <c r="A4" s="740" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="656" t="s">
+      <c r="B4" s="740" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="656" t="s">
+      <c r="C4" s="740" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="656" t="s">
+      <c r="D4" s="740" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="656" t="s">
+      <c r="E4" s="740" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="656" t="s">
+      <c r="F4" s="740" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="656" t="s">
+      <c r="G4" s="740" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="657" t="s">
+      <c r="H4" s="741" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="659" t="s">
+      <c r="I4" s="743" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="657" t="s">
+      <c r="J4" s="741" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="657" t="s">
+      <c r="K4" s="741" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="660" t="n">
+      <c r="L4" s="744" t="n">
         <v>312946.0</v>
       </c>
-      <c r="M4" s="657" t="s">
+      <c r="M4" s="741" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="658"/>
-      <c r="O4" s="658"/>
-      <c r="P4" s="658"/>
-      <c r="Q4" s="656" t="s">
+      <c r="N4" s="742"/>
+      <c r="O4" s="742"/>
+      <c r="P4" s="742"/>
+      <c r="Q4" s="740" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="656" t="s">
+      <c r="R4" s="740" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="657" t="s">
+      <c r="S4" s="741" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="657" t="s">
+      <c r="T4" s="741" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="657" t="s">
+      <c r="U4" s="741" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="661" t="s">
+      <c r="A5" s="745" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="661" t="s">
+      <c r="B5" s="745" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="661" t="s">
+      <c r="C5" s="745" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="661" t="s">
+      <c r="D5" s="745" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="661" t="s">
+      <c r="E5" s="745" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="661" t="s">
+      <c r="F5" s="745" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="661" t="s">
+      <c r="G5" s="745" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="662" t="s">
+      <c r="H5" s="746" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="664" t="s">
+      <c r="I5" s="748" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="662" t="s">
+      <c r="J5" s="746" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="662" t="s">
+      <c r="K5" s="746" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="662"/>
-      <c r="M5" s="662" t="s">
+      <c r="L5" s="746"/>
+      <c r="M5" s="746" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="663"/>
-      <c r="O5" s="663"/>
-      <c r="P5" s="663"/>
-      <c r="Q5" s="661" t="s">
+      <c r="N5" s="747"/>
+      <c r="O5" s="747"/>
+      <c r="P5" s="747"/>
+      <c r="Q5" s="745" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="661" t="s">
+      <c r="R5" s="745" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="662" t="s">
+      <c r="S5" s="746" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="662" t="s">
+      <c r="T5" s="746" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="662" t="s">
+      <c r="U5" s="746" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="665" t="s">
+      <c r="A6" s="749" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="665" t="s">
+      <c r="B6" s="749" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="665" t="s">
+      <c r="C6" s="749" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="665" t="s">
+      <c r="D6" s="749" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="665" t="s">
+      <c r="E6" s="749" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="665" t="s">
+      <c r="F6" s="749" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="665" t="s">
+      <c r="G6" s="749" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="666" t="s">
+      <c r="H6" s="750" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="668" t="s">
+      <c r="I6" s="752" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="666" t="s">
+      <c r="J6" s="750" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="666" t="s">
+      <c r="K6" s="750" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="666"/>
-      <c r="M6" s="666" t="s">
+      <c r="L6" s="750"/>
+      <c r="M6" s="750" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="667"/>
-      <c r="O6" s="667"/>
-      <c r="P6" s="667"/>
-      <c r="Q6" s="665" t="s">
+      <c r="N6" s="751"/>
+      <c r="O6" s="751"/>
+      <c r="P6" s="751"/>
+      <c r="Q6" s="749" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="665" t="s">
+      <c r="R6" s="749" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="666" t="s">
+      <c r="S6" s="750" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="666" t="s">
+      <c r="T6" s="750" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="666" t="s">
+      <c r="U6" s="750" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="669" t="s">
+      <c r="A7" s="753" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="669" t="s">
+      <c r="B7" s="753" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="669" t="s">
+      <c r="C7" s="753" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="669" t="s">
+      <c r="D7" s="753" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="669" t="s">
+      <c r="E7" s="753" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="669" t="s">
+      <c r="F7" s="753" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="669" t="s">
+      <c r="G7" s="753" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="670" t="s">
+      <c r="H7" s="754" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="672" t="s">
+      <c r="I7" s="756" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="670" t="s">
+      <c r="J7" s="754" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="670" t="s">
+      <c r="K7" s="754" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="670"/>
-      <c r="M7" s="670" t="s">
+      <c r="L7" s="754"/>
+      <c r="M7" s="754" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="671"/>
-      <c r="O7" s="671"/>
-      <c r="P7" s="671"/>
-      <c r="Q7" s="669" t="s">
+      <c r="N7" s="755"/>
+      <c r="O7" s="755"/>
+      <c r="P7" s="755"/>
+      <c r="Q7" s="753" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="669" t="s">
+      <c r="R7" s="753" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="670" t="s">
+      <c r="S7" s="754" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="670" t="s">
+      <c r="T7" s="754" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="670" t="s">
+      <c r="U7" s="754" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" sqref="M2:M7" allowBlank="true" errorStyle="stop" showDropDown="false" errorTitle="Erreur Action" error="Valeur pour l'action interdite" showErrorMessage="true">
-      <formula1>"A créer,A vérifier,,A assembler,A clôturer"</formula1>
+    <dataValidation allowBlank="true" error="Valeur pour l'action interdite" errorStyle="stop" errorTitle="Erreur Action" showDropDown="false" showErrorMessage="true" sqref="M2:M7" type="list">
+      <formula1>"A créer,A vérifier,,A assembler,A clôturer,A abandonner"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="L2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="L3" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="L4" r:id="rId6"/>
-    <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I6" r:id="rId8"/>
-    <hyperlink ref="I7" r:id="rId9"/>
+    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink r:id="rId2" ref="L2"/>
+    <hyperlink r:id="rId3" ref="I3"/>
+    <hyperlink r:id="rId4" ref="L3"/>
+    <hyperlink r:id="rId5" ref="I4"/>
+    <hyperlink r:id="rId6" ref="L4"/>
+    <hyperlink r:id="rId7" ref="I5"/>
+    <hyperlink r:id="rId8" ref="I6"/>
+    <hyperlink r:id="rId9" ref="I7"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet272.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet277.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:V1"/>
   <sheetViews>
@@ -4556,91 +4892,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.28125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.26171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="10.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.1953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.57421875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.5390625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="10.703125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="7.60546875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="15.96875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="13.765625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="19.1875" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="11.48046875" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="9.265625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.75390625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="9.12109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.31640625" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.515625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28125" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.26171875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.70703125" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1953125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.57421875" collapsed="false"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.5390625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.60546875" collapsed="false"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.48046875" collapsed="false"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.75390625" collapsed="false"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="9.12109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="625" t="s">
+      <c r="A1" s="709" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="626" t="s">
+      <c r="B1" s="710" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="627" t="s">
+      <c r="C1" s="711" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="628" t="s">
+      <c r="D1" s="712" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="629" t="s">
+      <c r="E1" s="713" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="630" t="s">
+      <c r="F1" s="714" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="631" t="s">
+      <c r="G1" s="715" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="632" t="s">
+      <c r="H1" s="716" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="633" t="s">
+      <c r="I1" s="717" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="634" t="s">
+      <c r="J1" s="718" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="635" t="s">
+      <c r="K1" s="719" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="636" t="s">
+      <c r="L1" s="720" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="637" t="s">
+      <c r="M1" s="721" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="638" t="s">
+      <c r="N1" s="722" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="639" t="s">
+      <c r="O1" s="723" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="640" t="s">
+      <c r="P1" s="724" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="641" t="s">
+      <c r="Q1" s="725" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="642" t="s">
+      <c r="R1" s="726" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="643" t="s">
+      <c r="S1" s="727" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="644" t="s">
+      <c r="T1" s="728" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="645" t="s">
+      <c r="U1" s="729" t="s">
         <v>68</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="273"/>
-    <sheet name="E30" r:id="rId10" sheetId="274"/>
-    <sheet name="E32" r:id="rId11" sheetId="275"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="276"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="277"/>
+    <sheet name="E31" r:id="rId9" sheetId="298"/>
+    <sheet name="E30" r:id="rId10" sheetId="299"/>
+    <sheet name="E32" r:id="rId11" sheetId="300"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="301"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="302"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="88">
   <si>
     <t>Edition</t>
   </si>
@@ -300,7 +300,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,8 +937,278 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="82">
+  <fills count="102">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1633,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1570,6 +1940,41 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1616,7 +2021,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="757">
+  <cellXfs count="1177">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3884,6 +4289,1266 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="28" fillId="81" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="83" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="83" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="83" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="30" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="30" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="103" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="30" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="30" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="30" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="85" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="30" fillId="85" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="85" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="87" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="32" fillId="89" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="32" fillId="89" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="32" fillId="89" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="32" fillId="89" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="32" fillId="89" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="89" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="32" fillId="89" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="32" fillId="89" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="91" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="91" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="91" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="34" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="34" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="34" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="124" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="34" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="34" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="93" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="34" fillId="93" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="93" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="95" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="36" fillId="97" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="36" fillId="97" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="36" fillId="97" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="36" fillId="97" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="36" fillId="97" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="97" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="36" fillId="97" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="36" fillId="97" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="99" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="99" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="99" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="38" fillId="101" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="38" fillId="101" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="140" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="38" fillId="101" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="38" fillId="101" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="38" fillId="101" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="101" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="38" fillId="101" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="101" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -4236,7 +5901,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet273.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet298.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4251,30 +5916,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="673" t="s">
+      <c r="A1" s="1093" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="673" t="s">
+      <c r="B1" s="1093" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="673" t="s">
+      <c r="C1" s="1093" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="673" t="s">
+      <c r="D1" s="1093" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="674" t="s">
+      <c r="A2" s="1094" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="675" t="s">
+      <c r="B2" s="1095" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="674" t="s">
+      <c r="C2" s="1094" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="674" t="s">
+      <c r="D2" s="1094" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4283,7 +5948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet274.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet299.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -4298,86 +5963,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="676" t="s">
+      <c r="A1" s="1096" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="676" t="s">
+      <c r="B1" s="1096" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="676" t="s">
+      <c r="C1" s="1096" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="676" t="s">
+      <c r="D1" s="1096" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="677" t="s">
+      <c r="A2" s="1097" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="678" t="s">
+      <c r="B2" s="1098" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="677" t="s">
+      <c r="C2" s="1097" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="677" t="s">
+      <c r="D2" s="1097" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="679" t="s">
+      <c r="A3" s="1099" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="680" t="s">
+      <c r="B3" s="1100" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="679" t="s">
+      <c r="C3" s="1099" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="679" t="s">
+      <c r="D3" s="1099" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="681" t="s">
+      <c r="A4" s="1101" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="682" t="s">
+      <c r="B4" s="1102" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="681" t="s">
+      <c r="C4" s="1101" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="681" t="s">
+      <c r="D4" s="1101" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="683" t="s">
+      <c r="A5" s="1103" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="684" t="s">
+      <c r="B5" s="1104" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="683" t="s">
+      <c r="C5" s="1103" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="683" t="s">
+      <c r="D5" s="1103" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="685" t="s">
+      <c r="A6" s="1105" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="686" t="s">
+      <c r="B6" s="1106" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="685" t="s">
+      <c r="C6" s="1105" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="685" t="s">
+      <c r="D6" s="1105" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4386,7 +6051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet275.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet300.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4401,16 +6066,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="687" t="s">
+      <c r="A1" s="1107" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="687" t="s">
+      <c r="B1" s="1107" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="687" t="s">
+      <c r="C1" s="1107" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="687" t="s">
+      <c r="D1" s="1107" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4419,7 +6084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet276.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet301.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V7"/>
   <sheetViews>
@@ -4451,415 +6116,415 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="688" t="s">
+      <c r="A1" s="1108" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="689" t="s">
+      <c r="B1" s="1109" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="690" t="s">
+      <c r="C1" s="1110" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="691" t="s">
+      <c r="D1" s="1111" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="692" t="s">
+      <c r="E1" s="1112" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="693" t="s">
+      <c r="F1" s="1113" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="694" t="s">
+      <c r="G1" s="1114" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="695" t="s">
+      <c r="H1" s="1115" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="696" t="s">
+      <c r="I1" s="1116" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="697" t="s">
+      <c r="J1" s="1117" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="698" t="s">
+      <c r="K1" s="1118" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="699" t="s">
+      <c r="L1" s="1119" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="700" t="s">
+      <c r="M1" s="1120" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="701" t="s">
+      <c r="N1" s="1121" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="702" t="s">
+      <c r="O1" s="1122" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="703" t="s">
+      <c r="P1" s="1123" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="704" t="s">
+      <c r="Q1" s="1124" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="705" t="s">
+      <c r="R1" s="1125" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="706" t="s">
+      <c r="S1" s="1126" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="707" t="s">
+      <c r="T1" s="1127" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="708" t="s">
+      <c r="U1" s="1128" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="730" t="s">
+      <c r="A2" s="1150" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="730" t="s">
+      <c r="B2" s="1150" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="730" t="s">
+      <c r="C2" s="1150" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="730" t="s">
+      <c r="D2" s="1150" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="730" t="s">
+      <c r="E2" s="1150" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="730" t="s">
+      <c r="F2" s="1150" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="730" t="s">
+      <c r="G2" s="1150" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="731" t="s">
+      <c r="H2" s="1151" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="733" t="s">
+      <c r="I2" s="1153" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="731" t="s">
+      <c r="J2" s="1151" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="731" t="s">
+      <c r="K2" s="1151" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="734" t="n">
+      <c r="L2" s="1154" t="n">
         <v>312996.0</v>
       </c>
-      <c r="M2" s="731" t="s">
+      <c r="M2" s="1151" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="732"/>
-      <c r="O2" s="732"/>
-      <c r="P2" s="732"/>
-      <c r="Q2" s="730" t="s">
+      <c r="N2" s="1152"/>
+      <c r="O2" s="1152"/>
+      <c r="P2" s="1152"/>
+      <c r="Q2" s="1150" t="s">
         <v>80</v>
       </c>
-      <c r="R2" s="730" t="s">
+      <c r="R2" s="1150" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="731" t="s">
+      <c r="S2" s="1151" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="731" t="s">
+      <c r="T2" s="1151" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="731" t="s">
+      <c r="U2" s="1151" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="735" t="s">
+      <c r="A3" s="1155" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="735" t="s">
+      <c r="B3" s="1155" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="735" t="s">
+      <c r="C3" s="1155" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="735" t="s">
+      <c r="D3" s="1155" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="735" t="s">
+      <c r="E3" s="1155" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="735" t="s">
+      <c r="F3" s="1155" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="735" t="s">
+      <c r="G3" s="1155" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="736" t="s">
+      <c r="H3" s="1156" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="738" t="s">
+      <c r="I3" s="1158" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="736" t="s">
+      <c r="J3" s="1156" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="736" t="s">
+      <c r="K3" s="1156" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="739" t="n">
+      <c r="L3" s="1159" t="n">
         <v>313058.0</v>
       </c>
-      <c r="M3" s="736" t="s">
+      <c r="M3" s="1156" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="737"/>
-      <c r="O3" s="737"/>
-      <c r="P3" s="737"/>
-      <c r="Q3" s="735" t="s">
+      <c r="N3" s="1157"/>
+      <c r="O3" s="1157"/>
+      <c r="P3" s="1157"/>
+      <c r="Q3" s="1155" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="735" t="s">
+      <c r="R3" s="1155" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="736" t="s">
+      <c r="S3" s="1156" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="736" t="s">
+      <c r="T3" s="1156" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="736" t="s">
+      <c r="U3" s="1156" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="740" t="s">
+      <c r="A4" s="1160" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="740" t="s">
+      <c r="B4" s="1160" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="740" t="s">
+      <c r="C4" s="1160" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="740" t="s">
+      <c r="D4" s="1160" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="740" t="s">
+      <c r="E4" s="1160" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="740" t="s">
+      <c r="F4" s="1160" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="740" t="s">
+      <c r="G4" s="1160" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="741" t="s">
+      <c r="H4" s="1161" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="743" t="s">
+      <c r="I4" s="1163" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="741" t="s">
+      <c r="J4" s="1161" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="741" t="s">
+      <c r="K4" s="1161" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="744" t="n">
+      <c r="L4" s="1164" t="n">
         <v>312946.0</v>
       </c>
-      <c r="M4" s="741" t="s">
+      <c r="M4" s="1161" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="742"/>
-      <c r="O4" s="742"/>
-      <c r="P4" s="742"/>
-      <c r="Q4" s="740" t="s">
+      <c r="N4" s="1162"/>
+      <c r="O4" s="1162"/>
+      <c r="P4" s="1162"/>
+      <c r="Q4" s="1160" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="740" t="s">
+      <c r="R4" s="1160" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="741" t="s">
+      <c r="S4" s="1161" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="741" t="s">
+      <c r="T4" s="1161" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="741" t="s">
+      <c r="U4" s="1161" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="745" t="s">
+      <c r="A5" s="1165" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="745" t="s">
+      <c r="B5" s="1165" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="745" t="s">
+      <c r="C5" s="1165" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="745" t="s">
+      <c r="D5" s="1165" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="745" t="s">
+      <c r="E5" s="1165" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="745" t="s">
+      <c r="F5" s="1165" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="745" t="s">
+      <c r="G5" s="1165" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="746" t="s">
+      <c r="H5" s="1166" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="748" t="s">
+      <c r="I5" s="1168" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="746" t="s">
+      <c r="J5" s="1166" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="746" t="s">
+      <c r="K5" s="1166" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="746"/>
-      <c r="M5" s="746" t="s">
+      <c r="L5" s="1166"/>
+      <c r="M5" s="1166" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="747"/>
-      <c r="O5" s="747"/>
-      <c r="P5" s="747"/>
-      <c r="Q5" s="745" t="s">
+      <c r="N5" s="1167"/>
+      <c r="O5" s="1167"/>
+      <c r="P5" s="1167"/>
+      <c r="Q5" s="1165" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="745" t="s">
+      <c r="R5" s="1165" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="746" t="s">
+      <c r="S5" s="1166" t="s">
         <v>39</v>
       </c>
-      <c r="T5" s="746" t="s">
+      <c r="T5" s="1166" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="746" t="s">
+      <c r="U5" s="1166" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="749" t="s">
+      <c r="A6" s="1169" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="749" t="s">
+      <c r="B6" s="1169" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="749" t="s">
+      <c r="C6" s="1169" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="749" t="s">
+      <c r="D6" s="1169" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="749" t="s">
+      <c r="E6" s="1169" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="749" t="s">
+      <c r="F6" s="1169" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="749" t="s">
+      <c r="G6" s="1169" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="750" t="s">
+      <c r="H6" s="1170" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="752" t="s">
+      <c r="I6" s="1172" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="750" t="s">
+      <c r="J6" s="1170" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="750" t="s">
+      <c r="K6" s="1170" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="750"/>
-      <c r="M6" s="750" t="s">
+      <c r="L6" s="1170"/>
+      <c r="M6" s="1170" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="751"/>
-      <c r="O6" s="751"/>
-      <c r="P6" s="751"/>
-      <c r="Q6" s="749" t="s">
+      <c r="N6" s="1171"/>
+      <c r="O6" s="1171"/>
+      <c r="P6" s="1171"/>
+      <c r="Q6" s="1169" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="749" t="s">
+      <c r="R6" s="1169" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="750" t="s">
+      <c r="S6" s="1170" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="750" t="s">
+      <c r="T6" s="1170" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="750" t="s">
+      <c r="U6" s="1170" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="753" t="s">
+      <c r="A7" s="1173" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="753" t="s">
+      <c r="B7" s="1173" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="753" t="s">
+      <c r="C7" s="1173" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="753" t="s">
+      <c r="D7" s="1173" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="753" t="s">
+      <c r="E7" s="1173" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="753" t="s">
+      <c r="F7" s="1173" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="753" t="s">
+      <c r="G7" s="1173" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="754" t="s">
+      <c r="H7" s="1174" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="756" t="s">
+      <c r="I7" s="1176" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="754" t="s">
+      <c r="J7" s="1174" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="754" t="s">
+      <c r="K7" s="1174" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="754"/>
-      <c r="M7" s="754" t="s">
+      <c r="L7" s="1174"/>
+      <c r="M7" s="1174" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="755"/>
-      <c r="O7" s="755"/>
-      <c r="P7" s="755"/>
-      <c r="Q7" s="753" t="s">
+      <c r="N7" s="1175"/>
+      <c r="O7" s="1175"/>
+      <c r="P7" s="1175"/>
+      <c r="Q7" s="1173" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="753" t="s">
+      <c r="R7" s="1173" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="754" t="s">
+      <c r="S7" s="1174" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="754" t="s">
+      <c r="T7" s="1174" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="754" t="s">
+      <c r="U7" s="1174" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4884,7 +6549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet277.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet302.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:V1"/>
   <sheetViews>
@@ -4916,67 +6581,67 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="709" t="s">
+      <c r="A1" s="1129" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="710" t="s">
+      <c r="B1" s="1130" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="711" t="s">
+      <c r="C1" s="1131" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="712" t="s">
+      <c r="D1" s="1132" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="713" t="s">
+      <c r="E1" s="1133" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="714" t="s">
+      <c r="F1" s="1134" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="715" t="s">
+      <c r="G1" s="1135" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="716" t="s">
+      <c r="H1" s="1136" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="717" t="s">
+      <c r="I1" s="1137" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="718" t="s">
+      <c r="J1" s="1138" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="719" t="s">
+      <c r="K1" s="1139" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="720" t="s">
+      <c r="L1" s="1140" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="721" t="s">
+      <c r="M1" s="1141" t="s">
         <v>77</v>
       </c>
-      <c r="N1" s="722" t="s">
+      <c r="N1" s="1142" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="723" t="s">
+      <c r="O1" s="1143" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="724" t="s">
+      <c r="P1" s="1144" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="725" t="s">
+      <c r="Q1" s="1145" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="726" t="s">
+      <c r="R1" s="1146" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="727" t="s">
+      <c r="S1" s="1147" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="728" t="s">
+      <c r="T1" s="1148" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="729" t="s">
+      <c r="U1" s="1149" t="s">
         <v>68</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="3" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="303"/>
-    <sheet name="E30" r:id="rId10" sheetId="304"/>
-    <sheet name="E32" r:id="rId11" sheetId="305"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="306"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="307"/>
+    <sheet name="E31" r:id="rId9" sheetId="323"/>
+    <sheet name="E30" r:id="rId10" sheetId="324"/>
+    <sheet name="E32" r:id="rId11" sheetId="325"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="326"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="327"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="87">
   <si>
     <t>Edition</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Lot 245316</t>
   </si>
   <si>
-    <t>E30.1_Fil_De_Leau FDL/CC 16.02</t>
-  </si>
-  <si>
     <t>Lot 287680</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>Lot 289483</t>
-  </si>
-  <si>
-    <t>E30.1_Fil_De_Leau FDL/CC 13.10</t>
   </si>
   <si>
     <t>Lot 294822</t>
@@ -263,9 +257,6 @@
     <t>Livré à l'Edition</t>
   </si>
   <si>
-    <t>En Vérification MOE</t>
-  </si>
-  <si>
     <t>Ouverte</t>
   </si>
   <si>
@@ -291,6 +282,12 @@
   </si>
   <si>
     <t>E30.1_Fil_De_Leau</t>
+  </si>
+  <si>
+    <t>Date mise à jour état</t>
+  </si>
+  <si>
+    <t>Date résolution</t>
   </si>
 </sst>
 </file>
@@ -974,7 +971,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="169">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1012,82 +1009,148 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
@@ -1099,10 +1162,10 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="21" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
@@ -1114,10 +1177,10 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="23" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
@@ -1129,10 +1192,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="25" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
@@ -1144,7 +1204,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="26" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="27" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
@@ -1156,266 +1216,266 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="12" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="34" fontId="28" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="36" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="36" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="36" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="38" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="29" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="30" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="38" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="31" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="32" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="38" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="33" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="34" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="38" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="35" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="38" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="36" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="38" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="14" fillId="38" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="38" fontId="37" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="14" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1767,7 +1827,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet303.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet323.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1775,38 +1835,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.34765625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>60</v>
+      <c r="D1" s="83" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>61</v>
+      <c r="A2" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +1874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet304.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet324.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1822,80 +1882,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.99609375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.65234375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.99609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="69" t="s">
-        <v>60</v>
+      <c r="D1" s="86" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>61</v>
+      <c r="B2" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>61</v>
+      <c r="C3" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>61</v>
+      <c r="A4" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>61</v>
+      <c r="A5" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +1963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet305.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet325.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1911,24 +1971,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.328125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.34765625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.359375" collapsed="false"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>60</v>
+      <c r="D1" s="95" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1936,565 +1996,609 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet306.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet326.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="40.1171875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.8984375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.4765625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="79.90234375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.92578125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.99609375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.78515625" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="41.05859375" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.65234375" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.60546875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="90.91015625" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="17.98828125" collapsed="false"/>
+    <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="17.99609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="41.05859375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="22.05078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="14.65234375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="9.265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="7.60546875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="15.96875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="13.765625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="16.61328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="19.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="90.91015625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.98828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="90" t="s">
+      <c r="K1" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="N1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="O1" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="97" t="s">
+      <c r="P1" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="98" t="s">
+      <c r="V1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="99" t="s">
-        <v>67</v>
+      <c r="W1" s="118" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="142" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="142" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="144" t="n">
+        <v>43138.0</v>
+      </c>
+      <c r="M2" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="146" t="n">
+        <v>312996.0</v>
+      </c>
+      <c r="O2" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144" t="n">
+        <v>43168.0</v>
+      </c>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144"/>
+      <c r="U2" s="142" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="143" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="121" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="121" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="122" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="125" t="n">
-        <v>312996.0</v>
-      </c>
-      <c r="N2" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="121" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" s="121" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="122" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="147" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="147" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="148" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="150" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="149" t="n">
+        <v>43214.0</v>
+      </c>
+      <c r="M3" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="151" t="n">
+        <v>313058.0</v>
+      </c>
+      <c r="O3" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="148" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149" t="n">
+        <v>43168.0</v>
+      </c>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="147" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="W3" s="148" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="126" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="126" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="127" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="129" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="127" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="127" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="130" t="n">
-        <v>313058.0</v>
-      </c>
-      <c r="N3" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="127" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="126" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="U3" s="127" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="131" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="131" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="131" t="s">
+      <c r="A4" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="H4" s="153" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="153" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="154" t="n">
+        <v>43153.0</v>
+      </c>
+      <c r="M4" s="153" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="156" t="n">
+        <v>312946.0</v>
+      </c>
+      <c r="O4" s="153" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="131" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="L4" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="135" t="n">
-        <v>312946.0</v>
-      </c>
-      <c r="N4" s="132" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="131" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="132" t="s">
-        <v>68</v>
+      <c r="P4" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154" t="n">
+        <v>43168.0</v>
+      </c>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="152" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="153" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="136" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="136" t="s">
+      <c r="A5" s="157" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="157" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="157" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="136" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="136" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="137" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="139" t="s">
+      <c r="H5" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="137" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="136" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" s="137" t="s">
-        <v>68</v>
+      <c r="I5" s="160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="158" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="159" t="n">
+        <v>43129.0</v>
+      </c>
+      <c r="M5" s="158" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="158"/>
+      <c r="O5" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="158" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="157" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="158" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="140" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="140" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="140" t="s">
+      <c r="A6" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="161" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="161" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="161" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="161" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="161" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="164" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="162" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="163" t="n">
+        <v>43130.0</v>
+      </c>
+      <c r="M6" s="162" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="140" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="141" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="141" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="141" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="142"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="140" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="140" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="141" t="s">
-        <v>68</v>
+      <c r="P6" s="162" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="161" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="161" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="162" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="165" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="165" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="144" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="144" t="s">
+      <c r="E7" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="144" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="165" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="166" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="144" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="145" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="147" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="145" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="145" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="145" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="145" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="144" t="s">
-        <v>57</v>
-      </c>
-      <c r="U7" s="145" t="s">
-        <v>70</v>
+      <c r="K7" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="167"/>
+      <c r="M7" s="166" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="166" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="165" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="166" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" error="Valeur pour l'action interdite" errorStyle="stop" errorTitle="Erreur Action" showDropDown="false" showErrorMessage="true" sqref="O2:O7" type="list">
+    <dataValidation type="list" sqref="P2:P7" allowBlank="true" errorStyle="stop" showDropDown="false" errorTitle="Erreur Action" error="Valeur pour l'action interdite" showErrorMessage="true">
       <formula1>"A créer,A vérifier,,A assembler,A clôturer,A abandonner"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
-    <hyperlink r:id="rId2" ref="M2"/>
-    <hyperlink r:id="rId3" ref="I3"/>
-    <hyperlink r:id="rId4" ref="M3"/>
-    <hyperlink r:id="rId5" ref="I4"/>
-    <hyperlink r:id="rId6" ref="M4"/>
-    <hyperlink r:id="rId7" ref="I5"/>
-    <hyperlink r:id="rId8" ref="I6"/>
-    <hyperlink r:id="rId9" ref="I7"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="N3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="N4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet307.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet327.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.31640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.515625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.28125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.43359375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.21875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.26171875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.70703125" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.1953125" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.265625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.75390625" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.57421875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.5390625" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.703125" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="9.265625" collapsed="false"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.60546875" collapsed="false"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="15.96875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.6796875" collapsed="false"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.765625" collapsed="false"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="19.1875" collapsed="false"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.48046875" collapsed="false"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="9.12109375" collapsed="false"/>
+    <col min="1" max="1" width="10.31640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.28125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.26171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="10.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.1953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="8.75390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.57421875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="22.05078125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.5390625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="9.265625" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="7.60546875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="15.96875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="13.765625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="16.61328125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="19.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="11.48046875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="9.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="108" t="s">
+      <c r="I1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="109" t="s">
+      <c r="J1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="111" t="s">
+      <c r="K1" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="N1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="113" t="s">
+      <c r="O1" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="114" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="118" t="s">
+      <c r="P1" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="136" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="137" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="119" t="s">
+      <c r="V1" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="120" t="s">
-        <v>67</v>
+      <c r="W1" s="141" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
